--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SatishKumarSundaramo\git\Mendix_New\Mendix\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\MIP\Mendix\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4FD37E-38F5-4980-AA71-9C543F55B10B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="332">
   <si>
     <t>S.NO</t>
   </si>
@@ -1012,12 +1011,18 @@
   </si>
   <si>
     <t>1416843</t>
+  </si>
+  <si>
+    <t>BE01</t>
+  </si>
+  <si>
+    <t>Create with ref Global Only - SAP Direct Copy with Rejections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1059,12 +1064,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1404,35 +1415,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV9"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="75.44140625" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="14.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="14.109375" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.109375" style="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="256" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2198,8 +2210,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2248,8 +2260,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2298,8 +2310,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2348,8 +2360,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2398,8 +2410,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2448,8 +2460,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>278</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2498,8 +2510,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>281</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2548,8 +2560,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2598,9 +2610,44 @@
         <v>265</v>
       </c>
     </row>
+    <row r="10" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2">
+        <v>34413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2609,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV6"/>
   <sheetViews>
@@ -2617,19 +2664,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="254" width="9.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="255" max="255" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="254" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="255" max="255" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
     <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>285</v>
       </c>
@@ -2646,7 +2693,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2663,7 +2710,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>266</v>
       </c>
@@ -2680,7 +2727,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>269</v>
       </c>
@@ -2697,7 +2744,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>272</v>
       </c>
@@ -2714,7 +2761,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>276</v>
       </c>
@@ -2742,7 +2789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
@@ -2750,14 +2797,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="123.140625" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="256" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="123.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
@@ -2765,7 +2812,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>300</v>
       </c>
@@ -2773,7 +2820,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>302</v>
       </c>
@@ -2781,7 +2828,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>303</v>
       </c>
@@ -2789,7 +2836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>304</v>
       </c>
@@ -2797,7 +2844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>305</v>
       </c>
@@ -2805,7 +2852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>306</v>
       </c>
@@ -2813,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>307</v>
       </c>
@@ -2821,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>308</v>
       </c>
@@ -2829,7 +2876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>309</v>
       </c>
@@ -2837,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>310</v>
       </c>
@@ -2845,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>311</v>
       </c>
@@ -2853,7 +2900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>312</v>
       </c>
@@ -2861,7 +2908,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>314</v>
       </c>
@@ -2869,7 +2916,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>316</v>
       </c>
@@ -2877,7 +2924,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>318</v>
       </c>
@@ -2885,7 +2932,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>320</v>
       </c>
@@ -2893,7 +2940,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>321</v>
       </c>
@@ -2901,7 +2948,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>323</v>
       </c>
@@ -2909,7 +2956,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>325</v>
       </c>
@@ -2917,7 +2964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>326</v>
       </c>

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="336">
   <si>
     <t>S.NO</t>
   </si>
@@ -1017,6 +1017,18 @@
   </si>
   <si>
     <t>Create with ref Global Only - SAP Direct Copy with Rejections</t>
+  </si>
+  <si>
+    <t>Create Vendor Happy flow - with disable Local and Bank Request(SAP)</t>
+  </si>
+  <si>
+    <t>1420073</t>
+  </si>
+  <si>
+    <t>503159</t>
+  </si>
+  <si>
+    <t>Create Material with Questionnaire only Global - SAP Duplicate Found, Extend Selected</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1429,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2621,7 +2633,7 @@
         <v>331</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>329</v>
@@ -2643,6 +2655,76 @@
       </c>
       <c r="K10" s="2">
         <v>34413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\MIP\Mendix\input\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="340">
   <si>
     <t>S.NO</t>
   </si>
@@ -1029,12 +1029,25 @@
   </si>
   <si>
     <t>Create Material with Questionnaire only Global - SAP Duplicate Found, Extend Selected</t>
+  </si>
+  <si>
+    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
+  </si>
+  <si>
+    <t>SG04</t>
+  </si>
+  <si>
+    <t>1332996</t>
+  </si>
+  <si>
+    <t>14835</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1076,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1089,6 +1102,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,30 +1445,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="14.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="75.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="11.109375" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="1" width="14.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="10.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="23.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="12.44140625" collapsed="true"/>
+    <col min="17" max="256" customWidth="true" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2703,7 +2719,7 @@
         <v>335</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>333</v>
@@ -2725,6 +2741,41 @@
       </c>
       <c r="K12" s="2" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2748,14 +2799,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="55" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="254" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="255" max="255" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="4.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="55.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="28.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="55.0" collapsed="true"/>
+    <col min="6" max="254" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="255" max="255" customWidth="true" style="1" width="4.88671875" collapsed="true"/>
+    <col min="256" max="256" customWidth="true" style="1" width="55.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2881,9 +2932,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="123.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="22.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="123.109375" collapsed="true"/>
+    <col min="3" max="256" customWidth="true" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\MIP\Mendix\input\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="336">
   <si>
     <t>S.NO</t>
   </si>
@@ -1029,25 +1029,12 @@
   </si>
   <si>
     <t>Create Material with Questionnaire only Global - SAP Duplicate Found, Extend Selected</t>
-  </si>
-  <si>
-    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
-  </si>
-  <si>
-    <t>SG04</t>
-  </si>
-  <si>
-    <t>1332996</t>
-  </si>
-  <si>
-    <t>14835</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1089,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1102,9 +1089,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,30 +1429,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV13"/>
+  <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="9.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="75.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="11.109375" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="1" width="14.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="10.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="23.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="12.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="12.44140625" collapsed="true"/>
-    <col min="17" max="256" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="75.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="14.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2719,7 +2703,7 @@
         <v>335</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>333</v>
@@ -2741,41 +2725,6 @@
       </c>
       <c r="K12" s="2" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2799,14 +2748,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="4.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="55.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="28.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="55.0" collapsed="true"/>
-    <col min="6" max="254" customWidth="true" style="1" width="9.109375" collapsed="true"/>
-    <col min="255" max="255" customWidth="true" style="1" width="4.88671875" collapsed="true"/>
-    <col min="256" max="256" customWidth="true" style="1" width="55.0" collapsed="true"/>
+    <col min="1" max="1" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="55" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="254" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="255" max="255" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2932,9 +2881,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="22.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="123.109375" collapsed="true"/>
-    <col min="3" max="256" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="22.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="123.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="342">
   <si>
     <t>S.NO</t>
   </si>
@@ -1029,6 +1029,24 @@
   </si>
   <si>
     <t>Create Material with Questionnaire only Global - SAP Duplicate Found, Extend Selected</t>
+  </si>
+  <si>
+    <t>Create_Vendor_Happy_flow-with_disable_Local_and_Bank_Request(SAP)</t>
+  </si>
+  <si>
+    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
+  </si>
+  <si>
+    <t>SG04</t>
+  </si>
+  <si>
+    <t>1313370</t>
+  </si>
+  <si>
+    <t>14842</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -1429,10 +1447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:IV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2721,7 @@
         <v>335</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>333</v>
@@ -2725,6 +2743,76 @@
       </c>
       <c r="K12" s="2" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\MIP\Mendix\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436"/>
+    <workbookView windowWidth="13320" windowHeight="2436" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345" count="1">
   <si>
     <t>S.NO</t>
   </si>
@@ -797,6 +792,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>1415905</t>
+  </si>
+  <si>
     <t>GBDA</t>
   </si>
   <si>
@@ -827,9 +825,6 @@
     <t>Create_Material_Draft</t>
   </si>
   <si>
-    <t>1415905</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -878,6 +873,54 @@
     <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_JDE</t>
   </si>
   <si>
+    <t>1416843</t>
+  </si>
+  <si>
+    <t>502871</t>
+  </si>
+  <si>
+    <t>BE01</t>
+  </si>
+  <si>
+    <t>Create with ref Global Only - SAP Direct Copy with Rejections</t>
+  </si>
+  <si>
+    <t>Create Vendor Happy flow - with disable Local and Bank Request(SAP)</t>
+  </si>
+  <si>
+    <t>1420073</t>
+  </si>
+  <si>
+    <t>503159</t>
+  </si>
+  <si>
+    <t>Create Material with Questionnaire only Global - SAP Duplicate Found, Extend Selected</t>
+  </si>
+  <si>
+    <t>Create_Vendor_Happy_flow-with_disable_Local_and_Bank_Request(SAP)</t>
+  </si>
+  <si>
+    <t>1421321</t>
+  </si>
+  <si>
+    <t>504364</t>
+  </si>
+  <si>
+    <t>SG04</t>
+  </si>
+  <si>
+    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1313370</t>
+  </si>
+  <si>
+    <t>14842</t>
+  </si>
+  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -1007,56 +1050,47 @@
     <t>Production | Raw material, ingredient or processing aid</t>
   </si>
   <si>
-    <t>502871</t>
-  </si>
-  <si>
-    <t>1416843</t>
-  </si>
-  <si>
-    <t>BE01</t>
-  </si>
-  <si>
-    <t>Create with ref Global Only - SAP Direct Copy with Rejections</t>
-  </si>
-  <si>
-    <t>Create Vendor Happy flow - with disable Local and Bank Request(SAP)</t>
-  </si>
-  <si>
-    <t>1420073</t>
-  </si>
-  <si>
-    <t>503159</t>
-  </si>
-  <si>
-    <t>Create Material with Questionnaire only Global - SAP Duplicate Found, Extend Selected</t>
-  </si>
-  <si>
-    <t>Create_Vendor_Happy_flow-with_disable_Local_and_Bank_Request(SAP)</t>
-  </si>
-  <si>
-    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
-  </si>
-  <si>
-    <t>SG04</t>
-  </si>
-  <si>
-    <t>1313370</t>
-  </si>
-  <si>
-    <t>14842</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>1000114831</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="9" formatCode="0%"/>
+    <numFmt numFmtId="49" formatCode="@"/>
+    <numFmt numFmtId="86" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="87" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="88" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="89" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Mic Shell Dlg"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Mic Shell Dlg"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Mic Shell Dlg"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1068,7 +1102,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1082,1742 +1119,1463 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="88" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="86" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="89" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="87" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV14"/>
+  <dimension ref="A1:IU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="14.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="21" width="9.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="22" width="9.109375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="22" width="75.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="22" width="9.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="22" width="11.109375" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" style="22" width="14.109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="22" width="13.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="22" width="12.44140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="22" width="12.5546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="22" width="10.88671875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="22" width="23.109375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="22" width="23.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="22" width="12.44140625" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="22" width="12.33203125" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="22" width="12.44140625" collapsed="false"/>
+    <col min="17" max="256" customWidth="true" style="22" width="9.109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CR1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CS1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CW1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CX1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CY1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="CZ1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DA1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DB1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DC1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DD1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DE1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DF1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DG1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DH1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DI1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DJ1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DK1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DL1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DM1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DN1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DO1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DP1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DQ1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DR1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DS1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DT1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DU1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DV1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DW1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DX1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DY1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="DZ1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EA1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EB1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EC1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="ED1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EE1" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EF1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EG1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EH1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EI1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EJ1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EK1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EL1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EM1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EN1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EO1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EP1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="EQ1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ER1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ES1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="ET1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EU1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EV1" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EW1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EX1" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EY1" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="EZ1" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FA1" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FB1" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FC1" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FD1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FE1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FF1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FG1" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FH1" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FI1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FJ1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FK1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FL1" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FM1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FN1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FO1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FP1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FQ1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FR1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FS1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FT1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FU1" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FV1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="FW1" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FX1" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="FY1" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="FZ1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GA1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GB1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GC1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GD1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GE1" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GF1" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="GG1" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GH1" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="GI1" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GJ1" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="GK1" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GL1" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="GM1" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="GN1" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="GO1" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="GP1" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c r="GQ1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="1" t="s">
+      <c r="GR1" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c r="GS1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="1" t="s">
+      <c r="GT1" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c r="GU1" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="GV1" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="GW1" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="GX1" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="GY1" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="GZ1" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HA1" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HB1" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c r="HC1" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HD1" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="HE1" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HF1" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="HG1" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HH1" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HI1" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HJ1" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HK1" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HL1" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="HM1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HN1" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="HO1" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HP1" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="HQ1" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HR1" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="HS1" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="HT1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="HU1" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="HV1" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="HW1" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="HX1" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="HY1" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="HZ1" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="IA1" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="IB1" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="IC1" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="ID1" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="IE1" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="IF1" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c r="IG1" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c r="IH1" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="II1" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="IJ1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c r="IK1" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c r="IL1" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c r="IM1" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c r="IN1" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c r="IO1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c r="IP1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c r="IQ1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="IR1" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="IS1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c r="IT1" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c r="IU1" s="22" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="23" customFormat="1">
+      <c r="A2" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" s="23" customFormat="1">
+      <c r="A3" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H3" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I3" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" s="23" customFormat="1">
+      <c r="A4" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="J4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L4" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M4" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N4" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" s="23" customFormat="1">
+      <c r="A5" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="N5" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" s="23" customFormat="1">
+      <c r="A6" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M6" s="23" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="3" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="N6" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" s="25" customFormat="1">
+      <c r="A7" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C7" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="E7" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G7" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H7" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I7" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K7" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="M7" s="25">
+        <v>30007783</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" s="25" customFormat="1">
+      <c r="A8" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="J8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L8" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="M8" s="25">
+        <v>30007783</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" s="25" customFormat="1">
+      <c r="A9" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E9" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G9" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H9" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I9" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K9" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="M9" s="25">
+        <v>30007783</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" s="23" customFormat="1">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="J10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="23">
+        <v>34413</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" s="23" customFormat="1">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E11" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G11" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H11" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I11" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K11" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" s="23" customFormat="1">
+      <c r="A12" s="24">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:255" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="J12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" s="23" customFormat="1">
+      <c r="A13" s="24">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G13" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H13" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I13" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K13" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" s="23" customFormat="1">
+      <c r="A14" s="24">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="J14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M7" s="3">
-        <v>30007783</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M8" s="3">
-        <v>30007783</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="M9" s="3">
-        <v>30007783</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="2">
-        <v>34413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>340</v>
+      <c r="K14" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2826,126 +2584,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:IV6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="55" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="254" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="255" max="255" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="22" width="4.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="22" width="55.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="22" width="24.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="22" width="28.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="22" width="55.0" collapsed="false"/>
+    <col min="6" max="254" customWidth="true" style="22" width="9.109375" collapsed="false"/>
+    <col min="255" max="255" customWidth="true" style="22" width="4.88671875" collapsed="false"/>
+    <col min="256" max="256" customWidth="true" style="22" width="55.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>297</v>
+      <c r="B6" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2959,187 +2717,187 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:IV21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="123.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="22" width="22.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="21" width="123.109375" collapsed="false"/>
+    <col min="3" max="256" customWidth="true" style="22" width="9.109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="1" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4">
+      <c r="A4" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5">
+      <c r="A5" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6">
+      <c r="A6" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7">
+      <c r="A7" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="8">
+      <c r="A8" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9">
+      <c r="A9" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10">
+      <c r="A10" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="11">
+      <c r="A11" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12">
+      <c r="A12" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="13">
+      <c r="A13" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="18">
+      <c r="A18" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>327</v>
+    <row r="21">
+      <c r="A21" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\MIP\Mendix\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="13320" windowHeight="2436" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="347">
   <si>
     <t>S.NO</t>
   </si>
@@ -912,9 +917,6 @@
     <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>1313370</t>
   </si>
   <si>
@@ -1051,46 +1053,25 @@
   </si>
   <si>
     <t>1000114831</t>
+  </si>
+  <si>
+    <t>Change _vendor_global _Only</t>
+  </si>
+  <si>
+    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_NAV</t>
+  </si>
+  <si>
+    <t>PA01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="9" formatCode="0%"/>
-    <numFmt numFmtId="49" formatCode="@"/>
-    <numFmt numFmtId="86" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="87" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="88" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="89" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Mic Shell Dlg"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Mic Shell Dlg"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Mic Shell Dlg"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1102,10 +1083,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -1119,1463 +1097,1857 @@
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="88" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="86" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="89" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="87" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IU14"/>
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="21" width="9.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="22" width="9.109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="22" width="75.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="22" width="9.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="22" width="11.109375" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" style="22" width="14.109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="22" width="13.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="22" width="12.44140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="22" width="12.5546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="22" width="10.88671875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="22" width="23.109375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="22" width="23.0" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="22" width="12.44140625" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="22" width="12.33203125" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="22" width="12.44140625" collapsed="false"/>
-    <col min="17" max="256" customWidth="true" style="22" width="9.109375" collapsed="false"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="2" customWidth="1"/>
+    <col min="17" max="256" width="9.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="22" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="22" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BK1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="22" t="s">
+      <c r="BM1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="22" t="s">
+      <c r="BN1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="22" t="s">
+      <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="22" t="s">
+      <c r="BP1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="22" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="22" t="s">
+      <c r="BR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="22" t="s">
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="22" t="s">
+      <c r="BT1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="22" t="s">
+      <c r="BU1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="22" t="s">
+      <c r="BV1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="22" t="s">
+      <c r="BW1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="22" t="s">
+      <c r="BX1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="22" t="s">
+      <c r="BY1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="22" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="22" t="s">
+      <c r="CA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="22" t="s">
+      <c r="CB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="22" t="s">
+      <c r="CC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="22" t="s">
+      <c r="CD1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="22" t="s">
+      <c r="CE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="22" t="s">
+      <c r="CF1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="22" t="s">
+      <c r="CG1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="22" t="s">
+      <c r="CH1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="22" t="s">
+      <c r="CI1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="22" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="22" t="s">
+      <c r="CK1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="22" t="s">
+      <c r="CL1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="22" t="s">
+      <c r="CM1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="22" t="s">
+      <c r="CN1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="22" t="s">
+      <c r="CO1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="22" t="s">
+      <c r="CP1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="22" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="22" t="s">
+      <c r="CR1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="22" t="s">
+      <c r="CS1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="22" t="s">
+      <c r="CT1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="22" t="s">
+      <c r="CU1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="22" t="s">
+      <c r="CV1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="22" t="s">
+      <c r="CW1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="22" t="s">
+      <c r="CX1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="22" t="s">
+      <c r="CY1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="22" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="22" t="s">
+      <c r="DA1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="22" t="s">
+      <c r="DB1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="22" t="s">
+      <c r="DC1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="22" t="s">
+      <c r="DD1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="22" t="s">
+      <c r="DE1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="22" t="s">
+      <c r="DF1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="22" t="s">
+      <c r="DG1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="22" t="s">
+      <c r="DH1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="22" t="s">
+      <c r="DI1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="22" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="22" t="s">
+      <c r="DK1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="22" t="s">
+      <c r="DL1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="22" t="s">
+      <c r="DM1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="22" t="s">
+      <c r="DN1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="22" t="s">
+      <c r="DO1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="22" t="s">
+      <c r="DP1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="22" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="22" t="s">
+      <c r="DR1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="22" t="s">
+      <c r="DS1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="22" t="s">
+      <c r="DT1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="22" t="s">
+      <c r="DU1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="22" t="s">
+      <c r="DV1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="22" t="s">
+      <c r="DW1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="22" t="s">
+      <c r="DX1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="22" t="s">
+      <c r="DY1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="22" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="22" t="s">
+      <c r="EA1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="22" t="s">
+      <c r="EB1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="22" t="s">
+      <c r="EC1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="22" t="s">
+      <c r="ED1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="22" t="s">
+      <c r="EE1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="22" t="s">
+      <c r="EF1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="22" t="s">
+      <c r="EG1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="22" t="s">
+      <c r="EH1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="22" t="s">
+      <c r="EI1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="22" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="22" t="s">
+      <c r="EK1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="22" t="s">
+      <c r="EL1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="22" t="s">
+      <c r="EM1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="22" t="s">
+      <c r="EN1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="22" t="s">
+      <c r="EO1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="22" t="s">
+      <c r="EP1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="22" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="22" t="s">
+      <c r="ER1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="22" t="s">
+      <c r="ES1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="22" t="s">
+      <c r="ET1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="22" t="s">
+      <c r="EU1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="22" t="s">
+      <c r="EV1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="22" t="s">
+      <c r="EW1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="22" t="s">
+      <c r="EX1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="22" t="s">
+      <c r="EY1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="22" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="22" t="s">
+      <c r="FA1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="22" t="s">
+      <c r="FB1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="22" t="s">
+      <c r="FC1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="22" t="s">
+      <c r="FD1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="22" t="s">
+      <c r="FE1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="22" t="s">
+      <c r="FF1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="22" t="s">
+      <c r="FG1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="22" t="s">
+      <c r="FH1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="22" t="s">
+      <c r="FI1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="22" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="22" t="s">
+      <c r="FK1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="22" t="s">
+      <c r="FL1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="22" t="s">
+      <c r="FM1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="22" t="s">
+      <c r="FN1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="22" t="s">
+      <c r="FO1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="22" t="s">
+      <c r="FP1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="22" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="22" t="s">
+      <c r="FR1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="22" t="s">
+      <c r="FS1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="22" t="s">
+      <c r="FT1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="22" t="s">
+      <c r="FU1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="22" t="s">
+      <c r="FV1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="22" t="s">
+      <c r="FW1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="22" t="s">
+      <c r="FX1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="22" t="s">
+      <c r="FY1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="22" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="22" t="s">
+      <c r="GA1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="22" t="s">
+      <c r="GB1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="22" t="s">
+      <c r="GC1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="22" t="s">
+      <c r="GD1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="22" t="s">
+      <c r="GE1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="22" t="s">
+      <c r="GF1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="22" t="s">
+      <c r="GG1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="22" t="s">
+      <c r="GH1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="22" t="s">
+      <c r="GI1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="22" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="22" t="s">
+      <c r="GK1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="22" t="s">
+      <c r="GL1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="22" t="s">
+      <c r="GM1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="22" t="s">
+      <c r="GN1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="22" t="s">
+      <c r="GO1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="22" t="s">
+      <c r="GP1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="22" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="22" t="s">
+      <c r="GR1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="22" t="s">
+      <c r="GS1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="22" t="s">
+      <c r="GT1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="22" t="s">
+      <c r="GU1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="22" t="s">
+      <c r="GV1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="22" t="s">
+      <c r="GW1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="22" t="s">
+      <c r="GX1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="22" t="s">
+      <c r="GY1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="22" t="s">
+      <c r="GZ1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="22" t="s">
+      <c r="HA1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="22" t="s">
+      <c r="HB1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="22" t="s">
+      <c r="HC1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="22" t="s">
+      <c r="HD1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="22" t="s">
+      <c r="HE1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="22" t="s">
+      <c r="HF1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="22" t="s">
+      <c r="HG1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="22" t="s">
+      <c r="HH1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="22" t="s">
+      <c r="HI1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="22" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="22" t="s">
+      <c r="HK1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="22" t="s">
+      <c r="HL1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="22" t="s">
+      <c r="HM1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="22" t="s">
+      <c r="HN1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="22" t="s">
+      <c r="HO1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="22" t="s">
+      <c r="HP1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="22" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="22" t="s">
+      <c r="HR1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="22" t="s">
+      <c r="HS1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="22" t="s">
+      <c r="HT1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="22" t="s">
+      <c r="HU1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="22" t="s">
+      <c r="HV1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="22" t="s">
+      <c r="HW1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="22" t="s">
+      <c r="HX1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="22" t="s">
+      <c r="HY1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="22" t="s">
+      <c r="HZ1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="22" t="s">
+      <c r="IA1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="22" t="s">
+      <c r="IB1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="22" t="s">
+      <c r="IC1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="22" t="s">
+      <c r="ID1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="22" t="s">
+      <c r="IE1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="22" t="s">
+      <c r="IF1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="22" t="s">
+      <c r="IG1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="22" t="s">
+      <c r="IH1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="22" t="s">
+      <c r="II1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="22" t="s">
+      <c r="IJ1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="22" t="s">
+      <c r="IK1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="22" t="s">
+      <c r="IL1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="22" t="s">
+      <c r="IM1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="22" t="s">
+      <c r="IN1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" s="22" t="s">
+      <c r="IO1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" s="22" t="s">
+      <c r="IP1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" s="22" t="s">
+      <c r="IQ1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" s="22" t="s">
+      <c r="IR1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" s="22" t="s">
+      <c r="IS1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" s="22" t="s">
+      <c r="IT1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="IU1" s="22" t="s">
+      <c r="IU1" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" s="23" customFormat="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" s="23" customFormat="1">
-      <c r="A3" s="24" t="s">
+      <c r="N2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="N3" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" s="23" customFormat="1">
-      <c r="A4" s="24" t="s">
+      <c r="N3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" s="23" customFormat="1">
-      <c r="A5" s="24" t="s">
+      <c r="N4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="N5" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" s="23" customFormat="1">
-      <c r="A6" s="24" t="s">
+      <c r="N5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="N6" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" s="25" customFormat="1">
-      <c r="A7" s="26" t="s">
+      <c r="N6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="5">
         <v>30007783</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" s="25" customFormat="1">
-      <c r="A8" s="26" t="s">
+      <c r="N7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="5">
         <v>30007783</v>
       </c>
-      <c r="N8" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="P8" s="25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" s="25" customFormat="1">
-      <c r="A9" s="26" t="s">
+      <c r="N8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="5">
         <v>30007783</v>
       </c>
-      <c r="N9" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" s="23" customFormat="1">
-      <c r="A10" s="24">
+      <c r="N9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="3">
         <v>34413</v>
       </c>
-      <c r="N10" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" s="23" customFormat="1">
-      <c r="A11" s="24">
+      <c r="N10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="N11" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" s="23" customFormat="1">
-      <c r="A12" s="24">
+      <c r="N11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="N12" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" s="23" customFormat="1">
-      <c r="A13" s="24">
+      <c r="N12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="K13" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G14" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H14" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I14" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="25" t="s">
+      <c r="K14" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="N13" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" s="23" customFormat="1">
-      <c r="A14" s="24">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="D15" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="F15" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="N15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G16" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H16" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I16" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="O14" s="23" t="s">
+      <c r="K16" s="3">
+        <v>107769</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2584,126 +2956,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:IV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="22" width="4.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="22" width="55.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="22" width="24.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="22" width="28.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="22" width="55.0" collapsed="false"/>
-    <col min="6" max="254" customWidth="true" style="22" width="9.109375" collapsed="false"/>
-    <col min="255" max="255" customWidth="true" style="22" width="4.88671875" collapsed="false"/>
-    <col min="256" max="256" customWidth="true" style="22" width="55.0" collapsed="false"/>
+    <col min="1" max="1" width="4.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55" style="2" customWidth="1"/>
+    <col min="6" max="254" width="9.109375" style="2" customWidth="1"/>
+    <col min="255" max="255" width="4.88671875" style="2" customWidth="1"/>
+    <col min="256" max="256" width="55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="C3" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="D3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="C4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="E4" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="C5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="22" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="C6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2717,187 +3089,187 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="22" width="22.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="21" width="123.109375" collapsed="false"/>
-    <col min="3" max="256" customWidth="true" style="22" width="9.109375" collapsed="false"/>
+    <col min="1" max="1" width="22.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="123.109375" style="1" customWidth="1"/>
+    <col min="3" max="256" width="9.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+      <c r="B3" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B5" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B6" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="22" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B8" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="s">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="22" t="s">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="s">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B11" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="s">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B12" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="22" t="s">
+      <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B13" s="21" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="22" t="s">
+      <c r="B14" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="21" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="22" t="s">
+      <c r="B15" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="21" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="22" t="s">
+      <c r="B16" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B16" s="21" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="22" t="s">
+      <c r="B17" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="s">
+      <c r="B18" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B18" s="22" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="s">
+      <c r="B19" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="22" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="22" t="s">
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="22" t="s">
+      <c r="B21" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\MIP\Mendix\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heineken\MIP\Mendix\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD879E-3DDC-42F1-99B8-FE4B1464BBDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="348">
   <si>
     <t>S.NO</t>
   </si>
@@ -1062,12 +1063,15 @@
   </si>
   <si>
     <t>PA01</t>
+  </si>
+  <si>
+    <t>Change _Material_global_and_local_for_NAV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1111,16 +1115,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1460,35 +1464,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IV17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="23" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="2" customWidth="1"/>
-    <col min="17" max="256" width="9.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="2" customWidth="1"/>
+    <col min="17" max="256" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>255</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>267</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>269</v>
       </c>
@@ -2405,7 +2409,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>272</v>
       </c>
@@ -2455,7 +2459,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>276</v>
       </c>
@@ -2505,7 +2509,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>278</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>281</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>283</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>345</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>298</v>
@@ -2942,6 +2946,47 @@
         <v>266</v>
       </c>
       <c r="O16" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3">
+        <v>14842</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2956,7 +3001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV6"/>
   <sheetViews>
@@ -2964,19 +3009,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="55" style="2" customWidth="1"/>
     <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="55" style="2" customWidth="1"/>
-    <col min="6" max="254" width="9.109375" style="2" customWidth="1"/>
-    <col min="255" max="255" width="4.88671875" style="2" customWidth="1"/>
+    <col min="6" max="254" width="9.140625" style="2" customWidth="1"/>
+    <col min="255" max="255" width="4.85546875" style="2" customWidth="1"/>
     <col min="256" max="256" width="55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>300</v>
       </c>
@@ -2993,7 +3038,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>255</v>
       </c>
@@ -3010,7 +3055,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>267</v>
       </c>
@@ -3027,7 +3072,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>269</v>
       </c>
@@ -3044,7 +3089,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>272</v>
       </c>
@@ -3061,7 +3106,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>276</v>
       </c>
@@ -3089,7 +3134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
@@ -3097,14 +3142,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="123.109375" style="1" customWidth="1"/>
-    <col min="3" max="256" width="9.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="123.140625" style="1" customWidth="1"/>
+    <col min="3" max="256" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>313</v>
       </c>
@@ -3112,7 +3157,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>315</v>
       </c>
@@ -3120,7 +3165,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>317</v>
       </c>
@@ -3128,7 +3173,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>318</v>
       </c>
@@ -3136,7 +3181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>319</v>
       </c>
@@ -3144,7 +3189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>320</v>
       </c>
@@ -3152,7 +3197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>321</v>
       </c>
@@ -3160,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>322</v>
       </c>
@@ -3168,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>323</v>
       </c>
@@ -3176,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>324</v>
       </c>
@@ -3184,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>325</v>
       </c>
@@ -3192,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>326</v>
       </c>
@@ -3200,7 +3245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>327</v>
       </c>
@@ -3208,7 +3253,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>329</v>
       </c>
@@ -3216,7 +3261,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>331</v>
       </c>
@@ -3224,7 +3269,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>333</v>
       </c>
@@ -3232,7 +3277,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>335</v>
       </c>
@@ -3240,7 +3285,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>336</v>
       </c>
@@ -3248,7 +3293,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>338</v>
       </c>
@@ -3256,7 +3301,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>340</v>
       </c>
@@ -3264,7 +3309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>341</v>
       </c>

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\MIP\Mendix\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heineken\MIP\Mendix\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788DE9EA-1FD5-4172-8531-72C768351DDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -1058,16 +1059,16 @@
     <t>Change _vendor_global _Only</t>
   </si>
   <si>
-    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_NAV</t>
-  </si>
-  <si>
-    <t>PA01</t>
+    <t>1423997</t>
+  </si>
+  <si>
+    <t>17.Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1111,16 +1112,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1460,35 +1461,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IV16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="2" customWidth="1"/>
-    <col min="17" max="256" width="9.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="75.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="17" max="256" width="9.140625" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>255</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>267</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>269</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>272</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>276</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>278</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>281</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>283</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2904,21 +2905,21 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>259</v>
@@ -2936,7 +2937,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="3">
-        <v>107769</v>
+        <v>38148</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>266</v>
@@ -2956,7 +2957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV6"/>
   <sheetViews>
@@ -2964,19 +2965,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55" style="2" customWidth="1"/>
-    <col min="6" max="254" width="9.109375" style="2" customWidth="1"/>
-    <col min="255" max="255" width="4.88671875" style="2" customWidth="1"/>
-    <col min="256" max="256" width="55" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="55" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="254" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="255" max="255" width="4.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="256" max="256" width="55" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>300</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>255</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>267</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>269</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>272</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>276</v>
       </c>
@@ -3089,7 +3090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
@@ -3097,14 +3098,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="123.109375" style="1" customWidth="1"/>
-    <col min="3" max="256" width="9.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="123.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="256" width="9.140625" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>313</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>315</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>317</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>318</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>319</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>320</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>321</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>322</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>323</v>
       </c>
@@ -3176,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>324</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>325</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>326</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>327</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>329</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>331</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>333</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>335</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>336</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>338</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>340</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>341</v>
       </c>

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heineken\MIP\Mendix\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\New folder\MIP\Mendix\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788DE9EA-1FD5-4172-8531-72C768351DDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="333">
   <si>
     <t>S.NO</t>
   </si>
@@ -72,9 +71,6 @@
     <t>Status_JDE</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -792,9 +788,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Create_Material</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -828,57 +821,33 @@
     <t>2</t>
   </si>
   <si>
-    <t>Create_Material_Draft</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>Create_Material_Global_Local_NAV</t>
-  </si>
-  <si>
     <t>1377436</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>Create_Material_Global_and_Local_for_JDE</t>
-  </si>
-  <si>
     <t>1416104</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>ChangeMaterial_Nav</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>ChangeMaterial_Reject_Discard</t>
-  </si>
-  <si>
     <t>1402111</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Create_Vendor_with_Questionnaire_only_Global</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_JDE</t>
-  </si>
-  <si>
     <t>1416843</t>
   </si>
   <si>
@@ -888,40 +857,10 @@
     <t>BE01</t>
   </si>
   <si>
-    <t>Create with ref Global Only - SAP Direct Copy with Rejections</t>
-  </si>
-  <si>
-    <t>Create Vendor Happy flow - with disable Local and Bank Request(SAP)</t>
-  </si>
-  <si>
-    <t>1420073</t>
-  </si>
-  <si>
-    <t>503159</t>
-  </si>
-  <si>
-    <t>Create Material with Questionnaire only Global - SAP Duplicate Found, Extend Selected</t>
-  </si>
-  <si>
-    <t>Create_Vendor_Happy_flow-with_disable_Local_and_Bank_Request(SAP)</t>
-  </si>
-  <si>
-    <t>1421321</t>
-  </si>
-  <si>
-    <t>504364</t>
-  </si>
-  <si>
     <t>SG04</t>
   </si>
   <si>
-    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
-  </si>
-  <si>
-    <t>1313370</t>
-  </si>
-  <si>
-    <t>14842</t>
+    <t>PA01</t>
   </si>
   <si>
     <t>S.No</t>
@@ -1053,23 +992,41 @@
     <t>Production | Raw material, ingredient or processing aid</t>
   </si>
   <si>
-    <t>1000114831</t>
-  </si>
-  <si>
-    <t>Change _vendor_global _Only</t>
-  </si>
-  <si>
-    <t>1423997</t>
-  </si>
-  <si>
-    <t>17.Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
+    <t>MZCB</t>
+  </si>
+  <si>
+    <t>Material Description</t>
+  </si>
+  <si>
+    <t>14Create Vendor with Questionnaire only Global</t>
+  </si>
+  <si>
+    <t>9Create Material with Questionnaire only Global</t>
+  </si>
+  <si>
+    <t>10Create Material with Questionnaire only Global with Rejections</t>
+  </si>
+  <si>
+    <t>8Create Material Global and Local for nav</t>
+  </si>
+  <si>
+    <t>22Create Vendor with Questionnaire with Global and Local_NAV</t>
+  </si>
+  <si>
+    <t>23Create Vendor with Questionnaire with Global and Local with Rejections_NAV</t>
+  </si>
+  <si>
+    <t>17Create Vendor with Questionnaire with Global and Local_JDE</t>
+  </si>
+  <si>
+    <t>18Create_Vendor_Happy Flow Global and Local with Rejections_JDE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -1077,6 +1034,12 @@
     <font>
       <sz val="11"/>
       <name val="Mic Shell Dlg"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1110,20 +1073,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1461,1490 +1431,5750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="75.44140625" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="14.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="14.109375" style="2" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.109375" style="2" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="23" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="17" max="256" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="17" max="256" width="9.109375" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CY1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DA1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DB1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DC1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DD1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DE1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DI1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DK1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DL1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DM1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DO1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DP1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DV1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EH1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EK1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EM1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EP1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="ER1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ES1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="ET1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="EU1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EV1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EW1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EX1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="EY1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="EZ1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FA1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FB1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FC1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FD1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FE1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FF1" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FG1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FH1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FI1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FJ1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FK1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FL1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FM1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FN1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FO1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FP1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FQ1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FR1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FS1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FT1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FU1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FV1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FW1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FX1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="FY1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="FZ1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GA1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GB1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GC1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GD1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GE1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GF1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GG1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GH1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GI1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GJ1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GK1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GL1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GM1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GN1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GO1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GP1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GQ1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GR1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GS1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GT1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GU1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GV1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GW1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="GX1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="GY1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="GZ1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HA1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HB1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HC1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HD1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HE1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HF1" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HG1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HH1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HI1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HJ1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HK1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HL1" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HM1" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HN1" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HO1" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HP1" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HQ1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HR1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HS1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HT1" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HU1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HV1" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HW1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="HX1" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="HY1" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="HZ1" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="IA1" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="IA1" s="2" t="s">
+      <c r="IB1" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="IC1" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="IC1" s="2" t="s">
+      <c r="ID1" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="ID1" s="2" t="s">
+      <c r="IE1" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="IE1" s="2" t="s">
+      <c r="IF1" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="IF1" s="2" t="s">
+      <c r="IG1" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="IG1" s="2" t="s">
+      <c r="IH1" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="IH1" s="2" t="s">
+      <c r="II1" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="II1" s="2" t="s">
+      <c r="IJ1" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="IJ1" s="2" t="s">
+      <c r="IK1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="IK1" s="2" t="s">
+      <c r="IL1" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="IL1" s="2" t="s">
+      <c r="IM1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="IM1" s="2" t="s">
+      <c r="IN1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="IN1" s="2" t="s">
+      <c r="IO1" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="IO1" s="2" t="s">
+      <c r="IP1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="IP1" s="2" t="s">
+      <c r="IQ1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="IQ1" s="2" t="s">
+      <c r="IR1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="IR1" s="2" t="s">
+      <c r="IS1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="IS1" s="2" t="s">
+      <c r="IT1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="IT1" s="2" t="s">
+      <c r="IU1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="IU1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>254</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
+      <c r="DM2" s="4"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="4"/>
+      <c r="DP2" s="4"/>
+      <c r="DQ2" s="4"/>
+      <c r="DR2" s="4"/>
+      <c r="DS2" s="4"/>
+      <c r="DT2" s="4"/>
+      <c r="DU2" s="4"/>
+      <c r="DV2" s="4"/>
+      <c r="DW2" s="4"/>
+      <c r="DX2" s="4"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
+      <c r="EB2" s="4"/>
+      <c r="EC2" s="4"/>
+      <c r="ED2" s="4"/>
+      <c r="EE2" s="4"/>
+      <c r="EF2" s="4"/>
+      <c r="EG2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
+      <c r="EM2" s="4"/>
+      <c r="EN2" s="4"/>
+      <c r="EO2" s="4"/>
+      <c r="EP2" s="4"/>
+      <c r="EQ2" s="4"/>
+      <c r="ER2" s="4"/>
+      <c r="ES2" s="4"/>
+      <c r="ET2" s="4"/>
+      <c r="EU2" s="4"/>
+      <c r="EV2" s="4"/>
+      <c r="EW2" s="4"/>
+      <c r="EX2" s="4"/>
+      <c r="EY2" s="4"/>
+      <c r="EZ2" s="4"/>
+      <c r="FA2" s="4"/>
+      <c r="FB2" s="4"/>
+      <c r="FC2" s="4"/>
+      <c r="FD2" s="4"/>
+      <c r="FE2" s="4"/>
+      <c r="FF2" s="4"/>
+      <c r="FG2" s="4"/>
+      <c r="FH2" s="4"/>
+      <c r="FI2" s="4"/>
+      <c r="FJ2" s="4"/>
+      <c r="FK2" s="4"/>
+      <c r="FL2" s="4"/>
+      <c r="FM2" s="4"/>
+      <c r="FN2" s="4"/>
+      <c r="FO2" s="4"/>
+      <c r="FP2" s="4"/>
+      <c r="FQ2" s="4"/>
+      <c r="FR2" s="4"/>
+      <c r="FS2" s="4"/>
+      <c r="FT2" s="4"/>
+      <c r="FU2" s="4"/>
+      <c r="FV2" s="4"/>
+      <c r="FW2" s="4"/>
+      <c r="FX2" s="4"/>
+      <c r="FY2" s="4"/>
+      <c r="FZ2" s="4"/>
+      <c r="GA2" s="4"/>
+      <c r="GB2" s="4"/>
+      <c r="GC2" s="4"/>
+      <c r="GD2" s="4"/>
+      <c r="GE2" s="4"/>
+      <c r="GF2" s="4"/>
+      <c r="GG2" s="4"/>
+      <c r="GH2" s="4"/>
+      <c r="GI2" s="4"/>
+      <c r="GJ2" s="4"/>
+      <c r="GK2" s="4"/>
+      <c r="GL2" s="4"/>
+      <c r="GM2" s="4"/>
+      <c r="GN2" s="4"/>
+      <c r="GO2" s="4"/>
+      <c r="GP2" s="4"/>
+      <c r="GQ2" s="4"/>
+      <c r="GR2" s="4"/>
+      <c r="GS2" s="4"/>
+      <c r="GT2" s="4"/>
+      <c r="GU2" s="4"/>
+      <c r="GV2" s="4"/>
+      <c r="GW2" s="4"/>
+      <c r="GX2" s="4"/>
+      <c r="GY2" s="4"/>
+      <c r="GZ2" s="4"/>
+      <c r="HA2" s="4"/>
+      <c r="HB2" s="4"/>
+      <c r="HC2" s="4"/>
+      <c r="HD2" s="4"/>
+      <c r="HE2" s="4"/>
+      <c r="HF2" s="4"/>
+      <c r="HG2" s="4"/>
+      <c r="HH2" s="4"/>
+      <c r="HI2" s="4"/>
+      <c r="HJ2" s="4"/>
+      <c r="HK2" s="4"/>
+      <c r="HL2" s="4"/>
+      <c r="HM2" s="4"/>
+      <c r="HN2" s="4"/>
+      <c r="HO2" s="4"/>
+      <c r="HP2" s="4"/>
+      <c r="HQ2" s="4"/>
+      <c r="HR2" s="4"/>
+      <c r="HS2" s="4"/>
+      <c r="HT2" s="4"/>
+      <c r="HU2" s="4"/>
+      <c r="HV2" s="4"/>
+      <c r="HW2" s="4"/>
+      <c r="HX2" s="4"/>
+      <c r="HY2" s="4"/>
+      <c r="HZ2" s="4"/>
+      <c r="IA2" s="4"/>
+      <c r="IB2" s="4"/>
+      <c r="IC2" s="4"/>
+      <c r="ID2" s="4"/>
+      <c r="IE2" s="4"/>
+      <c r="IF2" s="4"/>
+      <c r="IG2" s="4"/>
+      <c r="IH2" s="4"/>
+      <c r="II2" s="4"/>
+      <c r="IJ2" s="4"/>
+      <c r="IK2" s="4"/>
+      <c r="IL2" s="4"/>
+      <c r="IM2" s="4"/>
+      <c r="IN2" s="4"/>
+      <c r="IO2" s="4"/>
+      <c r="IP2" s="4"/>
+      <c r="IQ2" s="4"/>
+      <c r="IR2" s="4"/>
+      <c r="IS2" s="4"/>
+      <c r="IT2" s="4"/>
+      <c r="IU2" s="4"/>
     </row>
-    <row r="2" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
+      <c r="DC3" s="4"/>
+      <c r="DD3" s="4"/>
+      <c r="DE3" s="4"/>
+      <c r="DF3" s="4"/>
+      <c r="DG3" s="4"/>
+      <c r="DH3" s="4"/>
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="4"/>
+      <c r="DK3" s="4"/>
+      <c r="DL3" s="4"/>
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="4"/>
+      <c r="DP3" s="4"/>
+      <c r="DQ3" s="4"/>
+      <c r="DR3" s="4"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="4"/>
+      <c r="DU3" s="4"/>
+      <c r="DV3" s="4"/>
+      <c r="DW3" s="4"/>
+      <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
+      <c r="DZ3" s="4"/>
+      <c r="EA3" s="4"/>
+      <c r="EB3" s="4"/>
+      <c r="EC3" s="4"/>
+      <c r="ED3" s="4"/>
+      <c r="EE3" s="4"/>
+      <c r="EF3" s="4"/>
+      <c r="EG3" s="4"/>
+      <c r="EH3" s="4"/>
+      <c r="EI3" s="4"/>
+      <c r="EJ3" s="4"/>
+      <c r="EK3" s="4"/>
+      <c r="EL3" s="4"/>
+      <c r="EM3" s="4"/>
+      <c r="EN3" s="4"/>
+      <c r="EO3" s="4"/>
+      <c r="EP3" s="4"/>
+      <c r="EQ3" s="4"/>
+      <c r="ER3" s="4"/>
+      <c r="ES3" s="4"/>
+      <c r="ET3" s="4"/>
+      <c r="EU3" s="4"/>
+      <c r="EV3" s="4"/>
+      <c r="EW3" s="4"/>
+      <c r="EX3" s="4"/>
+      <c r="EY3" s="4"/>
+      <c r="EZ3" s="4"/>
+      <c r="FA3" s="4"/>
+      <c r="FB3" s="4"/>
+      <c r="FC3" s="4"/>
+      <c r="FD3" s="4"/>
+      <c r="FE3" s="4"/>
+      <c r="FF3" s="4"/>
+      <c r="FG3" s="4"/>
+      <c r="FH3" s="4"/>
+      <c r="FI3" s="4"/>
+      <c r="FJ3" s="4"/>
+      <c r="FK3" s="4"/>
+      <c r="FL3" s="4"/>
+      <c r="FM3" s="4"/>
+      <c r="FN3" s="4"/>
+      <c r="FO3" s="4"/>
+      <c r="FP3" s="4"/>
+      <c r="FQ3" s="4"/>
+      <c r="FR3" s="4"/>
+      <c r="FS3" s="4"/>
+      <c r="FT3" s="4"/>
+      <c r="FU3" s="4"/>
+      <c r="FV3" s="4"/>
+      <c r="FW3" s="4"/>
+      <c r="FX3" s="4"/>
+      <c r="FY3" s="4"/>
+      <c r="FZ3" s="4"/>
+      <c r="GA3" s="4"/>
+      <c r="GB3" s="4"/>
+      <c r="GC3" s="4"/>
+      <c r="GD3" s="4"/>
+      <c r="GE3" s="4"/>
+      <c r="GF3" s="4"/>
+      <c r="GG3" s="4"/>
+      <c r="GH3" s="4"/>
+      <c r="GI3" s="4"/>
+      <c r="GJ3" s="4"/>
+      <c r="GK3" s="4"/>
+      <c r="GL3" s="4"/>
+      <c r="GM3" s="4"/>
+      <c r="GN3" s="4"/>
+      <c r="GO3" s="4"/>
+      <c r="GP3" s="4"/>
+      <c r="GQ3" s="4"/>
+      <c r="GR3" s="4"/>
+      <c r="GS3" s="4"/>
+      <c r="GT3" s="4"/>
+      <c r="GU3" s="4"/>
+      <c r="GV3" s="4"/>
+      <c r="GW3" s="4"/>
+      <c r="GX3" s="4"/>
+      <c r="GY3" s="4"/>
+      <c r="GZ3" s="4"/>
+      <c r="HA3" s="4"/>
+      <c r="HB3" s="4"/>
+      <c r="HC3" s="4"/>
+      <c r="HD3" s="4"/>
+      <c r="HE3" s="4"/>
+      <c r="HF3" s="4"/>
+      <c r="HG3" s="4"/>
+      <c r="HH3" s="4"/>
+      <c r="HI3" s="4"/>
+      <c r="HJ3" s="4"/>
+      <c r="HK3" s="4"/>
+      <c r="HL3" s="4"/>
+      <c r="HM3" s="4"/>
+      <c r="HN3" s="4"/>
+      <c r="HO3" s="4"/>
+      <c r="HP3" s="4"/>
+      <c r="HQ3" s="4"/>
+      <c r="HR3" s="4"/>
+      <c r="HS3" s="4"/>
+      <c r="HT3" s="4"/>
+      <c r="HU3" s="4"/>
+      <c r="HV3" s="4"/>
+      <c r="HW3" s="4"/>
+      <c r="HX3" s="4"/>
+      <c r="HY3" s="4"/>
+      <c r="HZ3" s="4"/>
+      <c r="IA3" s="4"/>
+      <c r="IB3" s="4"/>
+      <c r="IC3" s="4"/>
+      <c r="ID3" s="4"/>
+      <c r="IE3" s="4"/>
+      <c r="IF3" s="4"/>
+      <c r="IG3" s="4"/>
+      <c r="IH3" s="4"/>
+      <c r="II3" s="4"/>
+      <c r="IJ3" s="4"/>
+      <c r="IK3" s="4"/>
+      <c r="IL3" s="4"/>
+      <c r="IM3" s="4"/>
+      <c r="IN3" s="4"/>
+      <c r="IO3" s="4"/>
+      <c r="IP3" s="4"/>
+      <c r="IQ3" s="4"/>
+      <c r="IR3" s="4"/>
+      <c r="IS3" s="4"/>
+      <c r="IT3" s="4"/>
+      <c r="IU3" s="4"/>
+    </row>
+    <row r="4" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="B4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
+      <c r="DC4" s="4"/>
+      <c r="DD4" s="4"/>
+      <c r="DE4" s="4"/>
+      <c r="DF4" s="4"/>
+      <c r="DG4" s="4"/>
+      <c r="DH4" s="4"/>
+      <c r="DI4" s="4"/>
+      <c r="DJ4" s="4"/>
+      <c r="DK4" s="4"/>
+      <c r="DL4" s="4"/>
+      <c r="DM4" s="4"/>
+      <c r="DN4" s="4"/>
+      <c r="DO4" s="4"/>
+      <c r="DP4" s="4"/>
+      <c r="DQ4" s="4"/>
+      <c r="DR4" s="4"/>
+      <c r="DS4" s="4"/>
+      <c r="DT4" s="4"/>
+      <c r="DU4" s="4"/>
+      <c r="DV4" s="4"/>
+      <c r="DW4" s="4"/>
+      <c r="DX4" s="4"/>
+      <c r="DY4" s="4"/>
+      <c r="DZ4" s="4"/>
+      <c r="EA4" s="4"/>
+      <c r="EB4" s="4"/>
+      <c r="EC4" s="4"/>
+      <c r="ED4" s="4"/>
+      <c r="EE4" s="4"/>
+      <c r="EF4" s="4"/>
+      <c r="EG4" s="4"/>
+      <c r="EH4" s="4"/>
+      <c r="EI4" s="4"/>
+      <c r="EJ4" s="4"/>
+      <c r="EK4" s="4"/>
+      <c r="EL4" s="4"/>
+      <c r="EM4" s="4"/>
+      <c r="EN4" s="4"/>
+      <c r="EO4" s="4"/>
+      <c r="EP4" s="4"/>
+      <c r="EQ4" s="4"/>
+      <c r="ER4" s="4"/>
+      <c r="ES4" s="4"/>
+      <c r="ET4" s="4"/>
+      <c r="EU4" s="4"/>
+      <c r="EV4" s="4"/>
+      <c r="EW4" s="4"/>
+      <c r="EX4" s="4"/>
+      <c r="EY4" s="4"/>
+      <c r="EZ4" s="4"/>
+      <c r="FA4" s="4"/>
+      <c r="FB4" s="4"/>
+      <c r="FC4" s="4"/>
+      <c r="FD4" s="4"/>
+      <c r="FE4" s="4"/>
+      <c r="FF4" s="4"/>
+      <c r="FG4" s="4"/>
+      <c r="FH4" s="4"/>
+      <c r="FI4" s="4"/>
+      <c r="FJ4" s="4"/>
+      <c r="FK4" s="4"/>
+      <c r="FL4" s="4"/>
+      <c r="FM4" s="4"/>
+      <c r="FN4" s="4"/>
+      <c r="FO4" s="4"/>
+      <c r="FP4" s="4"/>
+      <c r="FQ4" s="4"/>
+      <c r="FR4" s="4"/>
+      <c r="FS4" s="4"/>
+      <c r="FT4" s="4"/>
+      <c r="FU4" s="4"/>
+      <c r="FV4" s="4"/>
+      <c r="FW4" s="4"/>
+      <c r="FX4" s="4"/>
+      <c r="FY4" s="4"/>
+      <c r="FZ4" s="4"/>
+      <c r="GA4" s="4"/>
+      <c r="GB4" s="4"/>
+      <c r="GC4" s="4"/>
+      <c r="GD4" s="4"/>
+      <c r="GE4" s="4"/>
+      <c r="GF4" s="4"/>
+      <c r="GG4" s="4"/>
+      <c r="GH4" s="4"/>
+      <c r="GI4" s="4"/>
+      <c r="GJ4" s="4"/>
+      <c r="GK4" s="4"/>
+      <c r="GL4" s="4"/>
+      <c r="GM4" s="4"/>
+      <c r="GN4" s="4"/>
+      <c r="GO4" s="4"/>
+      <c r="GP4" s="4"/>
+      <c r="GQ4" s="4"/>
+      <c r="GR4" s="4"/>
+      <c r="GS4" s="4"/>
+      <c r="GT4" s="4"/>
+      <c r="GU4" s="4"/>
+      <c r="GV4" s="4"/>
+      <c r="GW4" s="4"/>
+      <c r="GX4" s="4"/>
+      <c r="GY4" s="4"/>
+      <c r="GZ4" s="4"/>
+      <c r="HA4" s="4"/>
+      <c r="HB4" s="4"/>
+      <c r="HC4" s="4"/>
+      <c r="HD4" s="4"/>
+      <c r="HE4" s="4"/>
+      <c r="HF4" s="4"/>
+      <c r="HG4" s="4"/>
+      <c r="HH4" s="4"/>
+      <c r="HI4" s="4"/>
+      <c r="HJ4" s="4"/>
+      <c r="HK4" s="4"/>
+      <c r="HL4" s="4"/>
+      <c r="HM4" s="4"/>
+      <c r="HN4" s="4"/>
+      <c r="HO4" s="4"/>
+      <c r="HP4" s="4"/>
+      <c r="HQ4" s="4"/>
+      <c r="HR4" s="4"/>
+      <c r="HS4" s="4"/>
+      <c r="HT4" s="4"/>
+      <c r="HU4" s="4"/>
+      <c r="HV4" s="4"/>
+      <c r="HW4" s="4"/>
+      <c r="HX4" s="4"/>
+      <c r="HY4" s="4"/>
+      <c r="HZ4" s="4"/>
+      <c r="IA4" s="4"/>
+      <c r="IB4" s="4"/>
+      <c r="IC4" s="4"/>
+      <c r="ID4" s="4"/>
+      <c r="IE4" s="4"/>
+      <c r="IF4" s="4"/>
+      <c r="IG4" s="4"/>
+      <c r="IH4" s="4"/>
+      <c r="II4" s="4"/>
+      <c r="IJ4" s="4"/>
+      <c r="IK4" s="4"/>
+      <c r="IL4" s="4"/>
+      <c r="IM4" s="4"/>
+      <c r="IN4" s="4"/>
+      <c r="IO4" s="4"/>
+      <c r="IP4" s="4"/>
+      <c r="IQ4" s="4"/>
+      <c r="IR4" s="4"/>
+      <c r="IS4" s="4"/>
+      <c r="IT4" s="4"/>
+      <c r="IU4" s="4"/>
     </row>
-    <row r="3" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
+      <c r="CQ5" s="4"/>
+      <c r="CR5" s="4"/>
+      <c r="CS5" s="4"/>
+      <c r="CT5" s="4"/>
+      <c r="CU5" s="4"/>
+      <c r="CV5" s="4"/>
+      <c r="CW5" s="4"/>
+      <c r="CX5" s="4"/>
+      <c r="CY5" s="4"/>
+      <c r="CZ5" s="4"/>
+      <c r="DA5" s="4"/>
+      <c r="DB5" s="4"/>
+      <c r="DC5" s="4"/>
+      <c r="DD5" s="4"/>
+      <c r="DE5" s="4"/>
+      <c r="DF5" s="4"/>
+      <c r="DG5" s="4"/>
+      <c r="DH5" s="4"/>
+      <c r="DI5" s="4"/>
+      <c r="DJ5" s="4"/>
+      <c r="DK5" s="4"/>
+      <c r="DL5" s="4"/>
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
+      <c r="DP5" s="4"/>
+      <c r="DQ5" s="4"/>
+      <c r="DR5" s="4"/>
+      <c r="DS5" s="4"/>
+      <c r="DT5" s="4"/>
+      <c r="DU5" s="4"/>
+      <c r="DV5" s="4"/>
+      <c r="DW5" s="4"/>
+      <c r="DX5" s="4"/>
+      <c r="DY5" s="4"/>
+      <c r="DZ5" s="4"/>
+      <c r="EA5" s="4"/>
+      <c r="EB5" s="4"/>
+      <c r="EC5" s="4"/>
+      <c r="ED5" s="4"/>
+      <c r="EE5" s="4"/>
+      <c r="EF5" s="4"/>
+      <c r="EG5" s="4"/>
+      <c r="EH5" s="4"/>
+      <c r="EI5" s="4"/>
+      <c r="EJ5" s="4"/>
+      <c r="EK5" s="4"/>
+      <c r="EL5" s="4"/>
+      <c r="EM5" s="4"/>
+      <c r="EN5" s="4"/>
+      <c r="EO5" s="4"/>
+      <c r="EP5" s="4"/>
+      <c r="EQ5" s="4"/>
+      <c r="ER5" s="4"/>
+      <c r="ES5" s="4"/>
+      <c r="ET5" s="4"/>
+      <c r="EU5" s="4"/>
+      <c r="EV5" s="4"/>
+      <c r="EW5" s="4"/>
+      <c r="EX5" s="4"/>
+      <c r="EY5" s="4"/>
+      <c r="EZ5" s="4"/>
+      <c r="FA5" s="4"/>
+      <c r="FB5" s="4"/>
+      <c r="FC5" s="4"/>
+      <c r="FD5" s="4"/>
+      <c r="FE5" s="4"/>
+      <c r="FF5" s="4"/>
+      <c r="FG5" s="4"/>
+      <c r="FH5" s="4"/>
+      <c r="FI5" s="4"/>
+      <c r="FJ5" s="4"/>
+      <c r="FK5" s="4"/>
+      <c r="FL5" s="4"/>
+      <c r="FM5" s="4"/>
+      <c r="FN5" s="4"/>
+      <c r="FO5" s="4"/>
+      <c r="FP5" s="4"/>
+      <c r="FQ5" s="4"/>
+      <c r="FR5" s="4"/>
+      <c r="FS5" s="4"/>
+      <c r="FT5" s="4"/>
+      <c r="FU5" s="4"/>
+      <c r="FV5" s="4"/>
+      <c r="FW5" s="4"/>
+      <c r="FX5" s="4"/>
+      <c r="FY5" s="4"/>
+      <c r="FZ5" s="4"/>
+      <c r="GA5" s="4"/>
+      <c r="GB5" s="4"/>
+      <c r="GC5" s="4"/>
+      <c r="GD5" s="4"/>
+      <c r="GE5" s="4"/>
+      <c r="GF5" s="4"/>
+      <c r="GG5" s="4"/>
+      <c r="GH5" s="4"/>
+      <c r="GI5" s="4"/>
+      <c r="GJ5" s="4"/>
+      <c r="GK5" s="4"/>
+      <c r="GL5" s="4"/>
+      <c r="GM5" s="4"/>
+      <c r="GN5" s="4"/>
+      <c r="GO5" s="4"/>
+      <c r="GP5" s="4"/>
+      <c r="GQ5" s="4"/>
+      <c r="GR5" s="4"/>
+      <c r="GS5" s="4"/>
+      <c r="GT5" s="4"/>
+      <c r="GU5" s="4"/>
+      <c r="GV5" s="4"/>
+      <c r="GW5" s="4"/>
+      <c r="GX5" s="4"/>
+      <c r="GY5" s="4"/>
+      <c r="GZ5" s="4"/>
+      <c r="HA5" s="4"/>
+      <c r="HB5" s="4"/>
+      <c r="HC5" s="4"/>
+      <c r="HD5" s="4"/>
+      <c r="HE5" s="4"/>
+      <c r="HF5" s="4"/>
+      <c r="HG5" s="4"/>
+      <c r="HH5" s="4"/>
+      <c r="HI5" s="4"/>
+      <c r="HJ5" s="4"/>
+      <c r="HK5" s="4"/>
+      <c r="HL5" s="4"/>
+      <c r="HM5" s="4"/>
+      <c r="HN5" s="4"/>
+      <c r="HO5" s="4"/>
+      <c r="HP5" s="4"/>
+      <c r="HQ5" s="4"/>
+      <c r="HR5" s="4"/>
+      <c r="HS5" s="4"/>
+      <c r="HT5" s="4"/>
+      <c r="HU5" s="4"/>
+      <c r="HV5" s="4"/>
+      <c r="HW5" s="4"/>
+      <c r="HX5" s="4"/>
+      <c r="HY5" s="4"/>
+      <c r="HZ5" s="4"/>
+      <c r="IA5" s="4"/>
+      <c r="IB5" s="4"/>
+      <c r="IC5" s="4"/>
+      <c r="ID5" s="4"/>
+      <c r="IE5" s="4"/>
+      <c r="IF5" s="4"/>
+      <c r="IG5" s="4"/>
+      <c r="IH5" s="4"/>
+      <c r="II5" s="4"/>
+      <c r="IJ5" s="4"/>
+      <c r="IK5" s="4"/>
+      <c r="IL5" s="4"/>
+      <c r="IM5" s="4"/>
+      <c r="IN5" s="4"/>
+      <c r="IO5" s="4"/>
+      <c r="IP5" s="4"/>
+      <c r="IQ5" s="4"/>
+      <c r="IR5" s="4"/>
+      <c r="IS5" s="4"/>
+      <c r="IT5" s="4"/>
+      <c r="IU5" s="4"/>
+    </row>
+    <row r="6" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="O6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
+      <c r="CV6" s="4"/>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4"/>
+      <c r="CY6" s="4"/>
+      <c r="CZ6" s="4"/>
+      <c r="DA6" s="4"/>
+      <c r="DB6" s="4"/>
+      <c r="DC6" s="4"/>
+      <c r="DD6" s="4"/>
+      <c r="DE6" s="4"/>
+      <c r="DF6" s="4"/>
+      <c r="DG6" s="4"/>
+      <c r="DH6" s="4"/>
+      <c r="DI6" s="4"/>
+      <c r="DJ6" s="4"/>
+      <c r="DK6" s="4"/>
+      <c r="DL6" s="4"/>
+      <c r="DM6" s="4"/>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="4"/>
+      <c r="DP6" s="4"/>
+      <c r="DQ6" s="4"/>
+      <c r="DR6" s="4"/>
+      <c r="DS6" s="4"/>
+      <c r="DT6" s="4"/>
+      <c r="DU6" s="4"/>
+      <c r="DV6" s="4"/>
+      <c r="DW6" s="4"/>
+      <c r="DX6" s="4"/>
+      <c r="DY6" s="4"/>
+      <c r="DZ6" s="4"/>
+      <c r="EA6" s="4"/>
+      <c r="EB6" s="4"/>
+      <c r="EC6" s="4"/>
+      <c r="ED6" s="4"/>
+      <c r="EE6" s="4"/>
+      <c r="EF6" s="4"/>
+      <c r="EG6" s="4"/>
+      <c r="EH6" s="4"/>
+      <c r="EI6" s="4"/>
+      <c r="EJ6" s="4"/>
+      <c r="EK6" s="4"/>
+      <c r="EL6" s="4"/>
+      <c r="EM6" s="4"/>
+      <c r="EN6" s="4"/>
+      <c r="EO6" s="4"/>
+      <c r="EP6" s="4"/>
+      <c r="EQ6" s="4"/>
+      <c r="ER6" s="4"/>
+      <c r="ES6" s="4"/>
+      <c r="ET6" s="4"/>
+      <c r="EU6" s="4"/>
+      <c r="EV6" s="4"/>
+      <c r="EW6" s="4"/>
+      <c r="EX6" s="4"/>
+      <c r="EY6" s="4"/>
+      <c r="EZ6" s="4"/>
+      <c r="FA6" s="4"/>
+      <c r="FB6" s="4"/>
+      <c r="FC6" s="4"/>
+      <c r="FD6" s="4"/>
+      <c r="FE6" s="4"/>
+      <c r="FF6" s="4"/>
+      <c r="FG6" s="4"/>
+      <c r="FH6" s="4"/>
+      <c r="FI6" s="4"/>
+      <c r="FJ6" s="4"/>
+      <c r="FK6" s="4"/>
+      <c r="FL6" s="4"/>
+      <c r="FM6" s="4"/>
+      <c r="FN6" s="4"/>
+      <c r="FO6" s="4"/>
+      <c r="FP6" s="4"/>
+      <c r="FQ6" s="4"/>
+      <c r="FR6" s="4"/>
+      <c r="FS6" s="4"/>
+      <c r="FT6" s="4"/>
+      <c r="FU6" s="4"/>
+      <c r="FV6" s="4"/>
+      <c r="FW6" s="4"/>
+      <c r="FX6" s="4"/>
+      <c r="FY6" s="4"/>
+      <c r="FZ6" s="4"/>
+      <c r="GA6" s="4"/>
+      <c r="GB6" s="4"/>
+      <c r="GC6" s="4"/>
+      <c r="GD6" s="4"/>
+      <c r="GE6" s="4"/>
+      <c r="GF6" s="4"/>
+      <c r="GG6" s="4"/>
+      <c r="GH6" s="4"/>
+      <c r="GI6" s="4"/>
+      <c r="GJ6" s="4"/>
+      <c r="GK6" s="4"/>
+      <c r="GL6" s="4"/>
+      <c r="GM6" s="4"/>
+      <c r="GN6" s="4"/>
+      <c r="GO6" s="4"/>
+      <c r="GP6" s="4"/>
+      <c r="GQ6" s="4"/>
+      <c r="GR6" s="4"/>
+      <c r="GS6" s="4"/>
+      <c r="GT6" s="4"/>
+      <c r="GU6" s="4"/>
+      <c r="GV6" s="4"/>
+      <c r="GW6" s="4"/>
+      <c r="GX6" s="4"/>
+      <c r="GY6" s="4"/>
+      <c r="GZ6" s="4"/>
+      <c r="HA6" s="4"/>
+      <c r="HB6" s="4"/>
+      <c r="HC6" s="4"/>
+      <c r="HD6" s="4"/>
+      <c r="HE6" s="4"/>
+      <c r="HF6" s="4"/>
+      <c r="HG6" s="4"/>
+      <c r="HH6" s="4"/>
+      <c r="HI6" s="4"/>
+      <c r="HJ6" s="4"/>
+      <c r="HK6" s="4"/>
+      <c r="HL6" s="4"/>
+      <c r="HM6" s="4"/>
+      <c r="HN6" s="4"/>
+      <c r="HO6" s="4"/>
+      <c r="HP6" s="4"/>
+      <c r="HQ6" s="4"/>
+      <c r="HR6" s="4"/>
+      <c r="HS6" s="4"/>
+      <c r="HT6" s="4"/>
+      <c r="HU6" s="4"/>
+      <c r="HV6" s="4"/>
+      <c r="HW6" s="4"/>
+      <c r="HX6" s="4"/>
+      <c r="HY6" s="4"/>
+      <c r="HZ6" s="4"/>
+      <c r="IA6" s="4"/>
+      <c r="IB6" s="4"/>
+      <c r="IC6" s="4"/>
+      <c r="ID6" s="4"/>
+      <c r="IE6" s="4"/>
+      <c r="IF6" s="4"/>
+      <c r="IG6" s="4"/>
+      <c r="IH6" s="4"/>
+      <c r="II6" s="4"/>
+      <c r="IJ6" s="4"/>
+      <c r="IK6" s="4"/>
+      <c r="IL6" s="4"/>
+      <c r="IM6" s="4"/>
+      <c r="IN6" s="4"/>
+      <c r="IO6" s="4"/>
+      <c r="IP6" s="4"/>
+      <c r="IQ6" s="4"/>
+      <c r="IR6" s="4"/>
+      <c r="IS6" s="4"/>
+      <c r="IT6" s="4"/>
+      <c r="IU6" s="4"/>
     </row>
-    <row r="4" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="7" spans="1:255" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M7" s="4">
+        <v>30007783</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>266</v>
+      <c r="O7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:255" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M8" s="4">
+        <v>30007783</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:255" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="M9" s="4">
+        <v>30007783</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>266</v>
+      <c r="O9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="10" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="4"/>
+      <c r="BT10" s="4"/>
+      <c r="BU10" s="4"/>
+      <c r="BV10" s="4"/>
+      <c r="BW10" s="4"/>
+      <c r="BX10" s="4"/>
+      <c r="BY10" s="4"/>
+      <c r="BZ10" s="4"/>
+      <c r="CA10" s="4"/>
+      <c r="CB10" s="4"/>
+      <c r="CC10" s="4"/>
+      <c r="CD10" s="4"/>
+      <c r="CE10" s="4"/>
+      <c r="CF10" s="4"/>
+      <c r="CG10" s="4"/>
+      <c r="CH10" s="4"/>
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="4"/>
+      <c r="CK10" s="4"/>
+      <c r="CL10" s="4"/>
+      <c r="CM10" s="4"/>
+      <c r="CN10" s="4"/>
+      <c r="CO10" s="4"/>
+      <c r="CP10" s="4"/>
+      <c r="CQ10" s="4"/>
+      <c r="CR10" s="4"/>
+      <c r="CS10" s="4"/>
+      <c r="CT10" s="4"/>
+      <c r="CU10" s="4"/>
+      <c r="CV10" s="4"/>
+      <c r="CW10" s="4"/>
+      <c r="CX10" s="4"/>
+      <c r="CY10" s="4"/>
+      <c r="CZ10" s="4"/>
+      <c r="DA10" s="4"/>
+      <c r="DB10" s="4"/>
+      <c r="DC10" s="4"/>
+      <c r="DD10" s="4"/>
+      <c r="DE10" s="4"/>
+      <c r="DF10" s="4"/>
+      <c r="DG10" s="4"/>
+      <c r="DH10" s="4"/>
+      <c r="DI10" s="4"/>
+      <c r="DJ10" s="4"/>
+      <c r="DK10" s="4"/>
+      <c r="DL10" s="4"/>
+      <c r="DM10" s="4"/>
+      <c r="DN10" s="4"/>
+      <c r="DO10" s="4"/>
+      <c r="DP10" s="4"/>
+      <c r="DQ10" s="4"/>
+      <c r="DR10" s="4"/>
+      <c r="DS10" s="4"/>
+      <c r="DT10" s="4"/>
+      <c r="DU10" s="4"/>
+      <c r="DV10" s="4"/>
+      <c r="DW10" s="4"/>
+      <c r="DX10" s="4"/>
+      <c r="DY10" s="4"/>
+      <c r="DZ10" s="4"/>
+      <c r="EA10" s="4"/>
+      <c r="EB10" s="4"/>
+      <c r="EC10" s="4"/>
+      <c r="ED10" s="4"/>
+      <c r="EE10" s="4"/>
+      <c r="EF10" s="4"/>
+      <c r="EG10" s="4"/>
+      <c r="EH10" s="4"/>
+      <c r="EI10" s="4"/>
+      <c r="EJ10" s="4"/>
+      <c r="EK10" s="4"/>
+      <c r="EL10" s="4"/>
+      <c r="EM10" s="4"/>
+      <c r="EN10" s="4"/>
+      <c r="EO10" s="4"/>
+      <c r="EP10" s="4"/>
+      <c r="EQ10" s="4"/>
+      <c r="ER10" s="4"/>
+      <c r="ES10" s="4"/>
+      <c r="ET10" s="4"/>
+      <c r="EU10" s="4"/>
+      <c r="EV10" s="4"/>
+      <c r="EW10" s="4"/>
+      <c r="EX10" s="4"/>
+      <c r="EY10" s="4"/>
+      <c r="EZ10" s="4"/>
+      <c r="FA10" s="4"/>
+      <c r="FB10" s="4"/>
+      <c r="FC10" s="4"/>
+      <c r="FD10" s="4"/>
+      <c r="FE10" s="4"/>
+      <c r="FF10" s="4"/>
+      <c r="FG10" s="4"/>
+      <c r="FH10" s="4"/>
+      <c r="FI10" s="4"/>
+      <c r="FJ10" s="4"/>
+      <c r="FK10" s="4"/>
+      <c r="FL10" s="4"/>
+      <c r="FM10" s="4"/>
+      <c r="FN10" s="4"/>
+      <c r="FO10" s="4"/>
+      <c r="FP10" s="4"/>
+      <c r="FQ10" s="4"/>
+      <c r="FR10" s="4"/>
+      <c r="FS10" s="4"/>
+      <c r="FT10" s="4"/>
+      <c r="FU10" s="4"/>
+      <c r="FV10" s="4"/>
+      <c r="FW10" s="4"/>
+      <c r="FX10" s="4"/>
+      <c r="FY10" s="4"/>
+      <c r="FZ10" s="4"/>
+      <c r="GA10" s="4"/>
+      <c r="GB10" s="4"/>
+      <c r="GC10" s="4"/>
+      <c r="GD10" s="4"/>
+      <c r="GE10" s="4"/>
+      <c r="GF10" s="4"/>
+      <c r="GG10" s="4"/>
+      <c r="GH10" s="4"/>
+      <c r="GI10" s="4"/>
+      <c r="GJ10" s="4"/>
+      <c r="GK10" s="4"/>
+      <c r="GL10" s="4"/>
+      <c r="GM10" s="4"/>
+      <c r="GN10" s="4"/>
+      <c r="GO10" s="4"/>
+      <c r="GP10" s="4"/>
+      <c r="GQ10" s="4"/>
+      <c r="GR10" s="4"/>
+      <c r="GS10" s="4"/>
+      <c r="GT10" s="4"/>
+      <c r="GU10" s="4"/>
+      <c r="GV10" s="4"/>
+      <c r="GW10" s="4"/>
+      <c r="GX10" s="4"/>
+      <c r="GY10" s="4"/>
+      <c r="GZ10" s="4"/>
+      <c r="HA10" s="4"/>
+      <c r="HB10" s="4"/>
+      <c r="HC10" s="4"/>
+      <c r="HD10" s="4"/>
+      <c r="HE10" s="4"/>
+      <c r="HF10" s="4"/>
+      <c r="HG10" s="4"/>
+      <c r="HH10" s="4"/>
+      <c r="HI10" s="4"/>
+      <c r="HJ10" s="4"/>
+      <c r="HK10" s="4"/>
+      <c r="HL10" s="4"/>
+      <c r="HM10" s="4"/>
+      <c r="HN10" s="4"/>
+      <c r="HO10" s="4"/>
+      <c r="HP10" s="4"/>
+      <c r="HQ10" s="4"/>
+      <c r="HR10" s="4"/>
+      <c r="HS10" s="4"/>
+      <c r="HT10" s="4"/>
+      <c r="HU10" s="4"/>
+      <c r="HV10" s="4"/>
+      <c r="HW10" s="4"/>
+      <c r="HX10" s="4"/>
+      <c r="HY10" s="4"/>
+      <c r="HZ10" s="4"/>
+      <c r="IA10" s="4"/>
+      <c r="IB10" s="4"/>
+      <c r="IC10" s="4"/>
+      <c r="ID10" s="4"/>
+      <c r="IE10" s="4"/>
+      <c r="IF10" s="4"/>
+      <c r="IG10" s="4"/>
+      <c r="IH10" s="4"/>
+      <c r="II10" s="4"/>
+      <c r="IJ10" s="4"/>
+      <c r="IK10" s="4"/>
+      <c r="IL10" s="4"/>
+      <c r="IM10" s="4"/>
+      <c r="IN10" s="4"/>
+      <c r="IO10" s="4"/>
+      <c r="IP10" s="4"/>
+      <c r="IQ10" s="4"/>
+      <c r="IR10" s="4"/>
+      <c r="IS10" s="4"/>
+      <c r="IT10" s="4"/>
+      <c r="IU10" s="4"/>
     </row>
-    <row r="7" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="M7" s="5">
-        <v>30007783</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>266</v>
-      </c>
+    <row r="11" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="4"/>
+      <c r="BS11" s="4"/>
+      <c r="BT11" s="4"/>
+      <c r="BU11" s="4"/>
+      <c r="BV11" s="4"/>
+      <c r="BW11" s="4"/>
+      <c r="BX11" s="4"/>
+      <c r="BY11" s="4"/>
+      <c r="BZ11" s="4"/>
+      <c r="CA11" s="4"/>
+      <c r="CB11" s="4"/>
+      <c r="CC11" s="4"/>
+      <c r="CD11" s="4"/>
+      <c r="CE11" s="4"/>
+      <c r="CF11" s="4"/>
+      <c r="CG11" s="4"/>
+      <c r="CH11" s="4"/>
+      <c r="CI11" s="4"/>
+      <c r="CJ11" s="4"/>
+      <c r="CK11" s="4"/>
+      <c r="CL11" s="4"/>
+      <c r="CM11" s="4"/>
+      <c r="CN11" s="4"/>
+      <c r="CO11" s="4"/>
+      <c r="CP11" s="4"/>
+      <c r="CQ11" s="4"/>
+      <c r="CR11" s="4"/>
+      <c r="CS11" s="4"/>
+      <c r="CT11" s="4"/>
+      <c r="CU11" s="4"/>
+      <c r="CV11" s="4"/>
+      <c r="CW11" s="4"/>
+      <c r="CX11" s="4"/>
+      <c r="CY11" s="4"/>
+      <c r="CZ11" s="4"/>
+      <c r="DA11" s="4"/>
+      <c r="DB11" s="4"/>
+      <c r="DC11" s="4"/>
+      <c r="DD11" s="4"/>
+      <c r="DE11" s="4"/>
+      <c r="DF11" s="4"/>
+      <c r="DG11" s="4"/>
+      <c r="DH11" s="4"/>
+      <c r="DI11" s="4"/>
+      <c r="DJ11" s="4"/>
+      <c r="DK11" s="4"/>
+      <c r="DL11" s="4"/>
+      <c r="DM11" s="4"/>
+      <c r="DN11" s="4"/>
+      <c r="DO11" s="4"/>
+      <c r="DP11" s="4"/>
+      <c r="DQ11" s="4"/>
+      <c r="DR11" s="4"/>
+      <c r="DS11" s="4"/>
+      <c r="DT11" s="4"/>
+      <c r="DU11" s="4"/>
+      <c r="DV11" s="4"/>
+      <c r="DW11" s="4"/>
+      <c r="DX11" s="4"/>
+      <c r="DY11" s="4"/>
+      <c r="DZ11" s="4"/>
+      <c r="EA11" s="4"/>
+      <c r="EB11" s="4"/>
+      <c r="EC11" s="4"/>
+      <c r="ED11" s="4"/>
+      <c r="EE11" s="4"/>
+      <c r="EF11" s="4"/>
+      <c r="EG11" s="4"/>
+      <c r="EH11" s="4"/>
+      <c r="EI11" s="4"/>
+      <c r="EJ11" s="4"/>
+      <c r="EK11" s="4"/>
+      <c r="EL11" s="4"/>
+      <c r="EM11" s="4"/>
+      <c r="EN11" s="4"/>
+      <c r="EO11" s="4"/>
+      <c r="EP11" s="4"/>
+      <c r="EQ11" s="4"/>
+      <c r="ER11" s="4"/>
+      <c r="ES11" s="4"/>
+      <c r="ET11" s="4"/>
+      <c r="EU11" s="4"/>
+      <c r="EV11" s="4"/>
+      <c r="EW11" s="4"/>
+      <c r="EX11" s="4"/>
+      <c r="EY11" s="4"/>
+      <c r="EZ11" s="4"/>
+      <c r="FA11" s="4"/>
+      <c r="FB11" s="4"/>
+      <c r="FC11" s="4"/>
+      <c r="FD11" s="4"/>
+      <c r="FE11" s="4"/>
+      <c r="FF11" s="4"/>
+      <c r="FG11" s="4"/>
+      <c r="FH11" s="4"/>
+      <c r="FI11" s="4"/>
+      <c r="FJ11" s="4"/>
+      <c r="FK11" s="4"/>
+      <c r="FL11" s="4"/>
+      <c r="FM11" s="4"/>
+      <c r="FN11" s="4"/>
+      <c r="FO11" s="4"/>
+      <c r="FP11" s="4"/>
+      <c r="FQ11" s="4"/>
+      <c r="FR11" s="4"/>
+      <c r="FS11" s="4"/>
+      <c r="FT11" s="4"/>
+      <c r="FU11" s="4"/>
+      <c r="FV11" s="4"/>
+      <c r="FW11" s="4"/>
+      <c r="FX11" s="4"/>
+      <c r="FY11" s="4"/>
+      <c r="FZ11" s="4"/>
+      <c r="GA11" s="4"/>
+      <c r="GB11" s="4"/>
+      <c r="GC11" s="4"/>
+      <c r="GD11" s="4"/>
+      <c r="GE11" s="4"/>
+      <c r="GF11" s="4"/>
+      <c r="GG11" s="4"/>
+      <c r="GH11" s="4"/>
+      <c r="GI11" s="4"/>
+      <c r="GJ11" s="4"/>
+      <c r="GK11" s="4"/>
+      <c r="GL11" s="4"/>
+      <c r="GM11" s="4"/>
+      <c r="GN11" s="4"/>
+      <c r="GO11" s="4"/>
+      <c r="GP11" s="4"/>
+      <c r="GQ11" s="4"/>
+      <c r="GR11" s="4"/>
+      <c r="GS11" s="4"/>
+      <c r="GT11" s="4"/>
+      <c r="GU11" s="4"/>
+      <c r="GV11" s="4"/>
+      <c r="GW11" s="4"/>
+      <c r="GX11" s="4"/>
+      <c r="GY11" s="4"/>
+      <c r="GZ11" s="4"/>
+      <c r="HA11" s="4"/>
+      <c r="HB11" s="4"/>
+      <c r="HC11" s="4"/>
+      <c r="HD11" s="4"/>
+      <c r="HE11" s="4"/>
+      <c r="HF11" s="4"/>
+      <c r="HG11" s="4"/>
+      <c r="HH11" s="4"/>
+      <c r="HI11" s="4"/>
+      <c r="HJ11" s="4"/>
+      <c r="HK11" s="4"/>
+      <c r="HL11" s="4"/>
+      <c r="HM11" s="4"/>
+      <c r="HN11" s="4"/>
+      <c r="HO11" s="4"/>
+      <c r="HP11" s="4"/>
+      <c r="HQ11" s="4"/>
+      <c r="HR11" s="4"/>
+      <c r="HS11" s="4"/>
+      <c r="HT11" s="4"/>
+      <c r="HU11" s="4"/>
+      <c r="HV11" s="4"/>
+      <c r="HW11" s="4"/>
+      <c r="HX11" s="4"/>
+      <c r="HY11" s="4"/>
+      <c r="HZ11" s="4"/>
+      <c r="IA11" s="4"/>
+      <c r="IB11" s="4"/>
+      <c r="IC11" s="4"/>
+      <c r="ID11" s="4"/>
+      <c r="IE11" s="4"/>
+      <c r="IF11" s="4"/>
+      <c r="IG11" s="4"/>
+      <c r="IH11" s="4"/>
+      <c r="II11" s="4"/>
+      <c r="IJ11" s="4"/>
+      <c r="IK11" s="4"/>
+      <c r="IL11" s="4"/>
+      <c r="IM11" s="4"/>
+      <c r="IN11" s="4"/>
+      <c r="IO11" s="4"/>
+      <c r="IP11" s="4"/>
+      <c r="IQ11" s="4"/>
+      <c r="IR11" s="4"/>
+      <c r="IS11" s="4"/>
+      <c r="IT11" s="4"/>
+      <c r="IU11" s="4"/>
     </row>
-    <row r="8" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="M8" s="5">
-        <v>30007783</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>266</v>
-      </c>
+    <row r="12" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+      <c r="BL12" s="4"/>
+      <c r="BM12" s="4"/>
+      <c r="BN12" s="4"/>
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="4"/>
+      <c r="BV12" s="4"/>
+      <c r="BW12" s="4"/>
+      <c r="BX12" s="4"/>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="4"/>
+      <c r="CA12" s="4"/>
+      <c r="CB12" s="4"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="4"/>
+      <c r="CE12" s="4"/>
+      <c r="CF12" s="4"/>
+      <c r="CG12" s="4"/>
+      <c r="CH12" s="4"/>
+      <c r="CI12" s="4"/>
+      <c r="CJ12" s="4"/>
+      <c r="CK12" s="4"/>
+      <c r="CL12" s="4"/>
+      <c r="CM12" s="4"/>
+      <c r="CN12" s="4"/>
+      <c r="CO12" s="4"/>
+      <c r="CP12" s="4"/>
+      <c r="CQ12" s="4"/>
+      <c r="CR12" s="4"/>
+      <c r="CS12" s="4"/>
+      <c r="CT12" s="4"/>
+      <c r="CU12" s="4"/>
+      <c r="CV12" s="4"/>
+      <c r="CW12" s="4"/>
+      <c r="CX12" s="4"/>
+      <c r="CY12" s="4"/>
+      <c r="CZ12" s="4"/>
+      <c r="DA12" s="4"/>
+      <c r="DB12" s="4"/>
+      <c r="DC12" s="4"/>
+      <c r="DD12" s="4"/>
+      <c r="DE12" s="4"/>
+      <c r="DF12" s="4"/>
+      <c r="DG12" s="4"/>
+      <c r="DH12" s="4"/>
+      <c r="DI12" s="4"/>
+      <c r="DJ12" s="4"/>
+      <c r="DK12" s="4"/>
+      <c r="DL12" s="4"/>
+      <c r="DM12" s="4"/>
+      <c r="DN12" s="4"/>
+      <c r="DO12" s="4"/>
+      <c r="DP12" s="4"/>
+      <c r="DQ12" s="4"/>
+      <c r="DR12" s="4"/>
+      <c r="DS12" s="4"/>
+      <c r="DT12" s="4"/>
+      <c r="DU12" s="4"/>
+      <c r="DV12" s="4"/>
+      <c r="DW12" s="4"/>
+      <c r="DX12" s="4"/>
+      <c r="DY12" s="4"/>
+      <c r="DZ12" s="4"/>
+      <c r="EA12" s="4"/>
+      <c r="EB12" s="4"/>
+      <c r="EC12" s="4"/>
+      <c r="ED12" s="4"/>
+      <c r="EE12" s="4"/>
+      <c r="EF12" s="4"/>
+      <c r="EG12" s="4"/>
+      <c r="EH12" s="4"/>
+      <c r="EI12" s="4"/>
+      <c r="EJ12" s="4"/>
+      <c r="EK12" s="4"/>
+      <c r="EL12" s="4"/>
+      <c r="EM12" s="4"/>
+      <c r="EN12" s="4"/>
+      <c r="EO12" s="4"/>
+      <c r="EP12" s="4"/>
+      <c r="EQ12" s="4"/>
+      <c r="ER12" s="4"/>
+      <c r="ES12" s="4"/>
+      <c r="ET12" s="4"/>
+      <c r="EU12" s="4"/>
+      <c r="EV12" s="4"/>
+      <c r="EW12" s="4"/>
+      <c r="EX12" s="4"/>
+      <c r="EY12" s="4"/>
+      <c r="EZ12" s="4"/>
+      <c r="FA12" s="4"/>
+      <c r="FB12" s="4"/>
+      <c r="FC12" s="4"/>
+      <c r="FD12" s="4"/>
+      <c r="FE12" s="4"/>
+      <c r="FF12" s="4"/>
+      <c r="FG12" s="4"/>
+      <c r="FH12" s="4"/>
+      <c r="FI12" s="4"/>
+      <c r="FJ12" s="4"/>
+      <c r="FK12" s="4"/>
+      <c r="FL12" s="4"/>
+      <c r="FM12" s="4"/>
+      <c r="FN12" s="4"/>
+      <c r="FO12" s="4"/>
+      <c r="FP12" s="4"/>
+      <c r="FQ12" s="4"/>
+      <c r="FR12" s="4"/>
+      <c r="FS12" s="4"/>
+      <c r="FT12" s="4"/>
+      <c r="FU12" s="4"/>
+      <c r="FV12" s="4"/>
+      <c r="FW12" s="4"/>
+      <c r="FX12" s="4"/>
+      <c r="FY12" s="4"/>
+      <c r="FZ12" s="4"/>
+      <c r="GA12" s="4"/>
+      <c r="GB12" s="4"/>
+      <c r="GC12" s="4"/>
+      <c r="GD12" s="4"/>
+      <c r="GE12" s="4"/>
+      <c r="GF12" s="4"/>
+      <c r="GG12" s="4"/>
+      <c r="GH12" s="4"/>
+      <c r="GI12" s="4"/>
+      <c r="GJ12" s="4"/>
+      <c r="GK12" s="4"/>
+      <c r="GL12" s="4"/>
+      <c r="GM12" s="4"/>
+      <c r="GN12" s="4"/>
+      <c r="GO12" s="4"/>
+      <c r="GP12" s="4"/>
+      <c r="GQ12" s="4"/>
+      <c r="GR12" s="4"/>
+      <c r="GS12" s="4"/>
+      <c r="GT12" s="4"/>
+      <c r="GU12" s="4"/>
+      <c r="GV12" s="4"/>
+      <c r="GW12" s="4"/>
+      <c r="GX12" s="4"/>
+      <c r="GY12" s="4"/>
+      <c r="GZ12" s="4"/>
+      <c r="HA12" s="4"/>
+      <c r="HB12" s="4"/>
+      <c r="HC12" s="4"/>
+      <c r="HD12" s="4"/>
+      <c r="HE12" s="4"/>
+      <c r="HF12" s="4"/>
+      <c r="HG12" s="4"/>
+      <c r="HH12" s="4"/>
+      <c r="HI12" s="4"/>
+      <c r="HJ12" s="4"/>
+      <c r="HK12" s="4"/>
+      <c r="HL12" s="4"/>
+      <c r="HM12" s="4"/>
+      <c r="HN12" s="4"/>
+      <c r="HO12" s="4"/>
+      <c r="HP12" s="4"/>
+      <c r="HQ12" s="4"/>
+      <c r="HR12" s="4"/>
+      <c r="HS12" s="4"/>
+      <c r="HT12" s="4"/>
+      <c r="HU12" s="4"/>
+      <c r="HV12" s="4"/>
+      <c r="HW12" s="4"/>
+      <c r="HX12" s="4"/>
+      <c r="HY12" s="4"/>
+      <c r="HZ12" s="4"/>
+      <c r="IA12" s="4"/>
+      <c r="IB12" s="4"/>
+      <c r="IC12" s="4"/>
+      <c r="ID12" s="4"/>
+      <c r="IE12" s="4"/>
+      <c r="IF12" s="4"/>
+      <c r="IG12" s="4"/>
+      <c r="IH12" s="4"/>
+      <c r="II12" s="4"/>
+      <c r="IJ12" s="4"/>
+      <c r="IK12" s="4"/>
+      <c r="IL12" s="4"/>
+      <c r="IM12" s="4"/>
+      <c r="IN12" s="4"/>
+      <c r="IO12" s="4"/>
+      <c r="IP12" s="4"/>
+      <c r="IQ12" s="4"/>
+      <c r="IR12" s="4"/>
+      <c r="IS12" s="4"/>
+      <c r="IT12" s="4"/>
+      <c r="IU12" s="4"/>
     </row>
-    <row r="9" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="M9" s="5">
-        <v>30007783</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>266</v>
-      </c>
+    <row r="13" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+      <c r="CA13" s="4"/>
+      <c r="CB13" s="4"/>
+      <c r="CC13" s="4"/>
+      <c r="CD13" s="4"/>
+      <c r="CE13" s="4"/>
+      <c r="CF13" s="4"/>
+      <c r="CG13" s="4"/>
+      <c r="CH13" s="4"/>
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="4"/>
+      <c r="CK13" s="4"/>
+      <c r="CL13" s="4"/>
+      <c r="CM13" s="4"/>
+      <c r="CN13" s="4"/>
+      <c r="CO13" s="4"/>
+      <c r="CP13" s="4"/>
+      <c r="CQ13" s="4"/>
+      <c r="CR13" s="4"/>
+      <c r="CS13" s="4"/>
+      <c r="CT13" s="4"/>
+      <c r="CU13" s="4"/>
+      <c r="CV13" s="4"/>
+      <c r="CW13" s="4"/>
+      <c r="CX13" s="4"/>
+      <c r="CY13" s="4"/>
+      <c r="CZ13" s="4"/>
+      <c r="DA13" s="4"/>
+      <c r="DB13" s="4"/>
+      <c r="DC13" s="4"/>
+      <c r="DD13" s="4"/>
+      <c r="DE13" s="4"/>
+      <c r="DF13" s="4"/>
+      <c r="DG13" s="4"/>
+      <c r="DH13" s="4"/>
+      <c r="DI13" s="4"/>
+      <c r="DJ13" s="4"/>
+      <c r="DK13" s="4"/>
+      <c r="DL13" s="4"/>
+      <c r="DM13" s="4"/>
+      <c r="DN13" s="4"/>
+      <c r="DO13" s="4"/>
+      <c r="DP13" s="4"/>
+      <c r="DQ13" s="4"/>
+      <c r="DR13" s="4"/>
+      <c r="DS13" s="4"/>
+      <c r="DT13" s="4"/>
+      <c r="DU13" s="4"/>
+      <c r="DV13" s="4"/>
+      <c r="DW13" s="4"/>
+      <c r="DX13" s="4"/>
+      <c r="DY13" s="4"/>
+      <c r="DZ13" s="4"/>
+      <c r="EA13" s="4"/>
+      <c r="EB13" s="4"/>
+      <c r="EC13" s="4"/>
+      <c r="ED13" s="4"/>
+      <c r="EE13" s="4"/>
+      <c r="EF13" s="4"/>
+      <c r="EG13" s="4"/>
+      <c r="EH13" s="4"/>
+      <c r="EI13" s="4"/>
+      <c r="EJ13" s="4"/>
+      <c r="EK13" s="4"/>
+      <c r="EL13" s="4"/>
+      <c r="EM13" s="4"/>
+      <c r="EN13" s="4"/>
+      <c r="EO13" s="4"/>
+      <c r="EP13" s="4"/>
+      <c r="EQ13" s="4"/>
+      <c r="ER13" s="4"/>
+      <c r="ES13" s="4"/>
+      <c r="ET13" s="4"/>
+      <c r="EU13" s="4"/>
+      <c r="EV13" s="4"/>
+      <c r="EW13" s="4"/>
+      <c r="EX13" s="4"/>
+      <c r="EY13" s="4"/>
+      <c r="EZ13" s="4"/>
+      <c r="FA13" s="4"/>
+      <c r="FB13" s="4"/>
+      <c r="FC13" s="4"/>
+      <c r="FD13" s="4"/>
+      <c r="FE13" s="4"/>
+      <c r="FF13" s="4"/>
+      <c r="FG13" s="4"/>
+      <c r="FH13" s="4"/>
+      <c r="FI13" s="4"/>
+      <c r="FJ13" s="4"/>
+      <c r="FK13" s="4"/>
+      <c r="FL13" s="4"/>
+      <c r="FM13" s="4"/>
+      <c r="FN13" s="4"/>
+      <c r="FO13" s="4"/>
+      <c r="FP13" s="4"/>
+      <c r="FQ13" s="4"/>
+      <c r="FR13" s="4"/>
+      <c r="FS13" s="4"/>
+      <c r="FT13" s="4"/>
+      <c r="FU13" s="4"/>
+      <c r="FV13" s="4"/>
+      <c r="FW13" s="4"/>
+      <c r="FX13" s="4"/>
+      <c r="FY13" s="4"/>
+      <c r="FZ13" s="4"/>
+      <c r="GA13" s="4"/>
+      <c r="GB13" s="4"/>
+      <c r="GC13" s="4"/>
+      <c r="GD13" s="4"/>
+      <c r="GE13" s="4"/>
+      <c r="GF13" s="4"/>
+      <c r="GG13" s="4"/>
+      <c r="GH13" s="4"/>
+      <c r="GI13" s="4"/>
+      <c r="GJ13" s="4"/>
+      <c r="GK13" s="4"/>
+      <c r="GL13" s="4"/>
+      <c r="GM13" s="4"/>
+      <c r="GN13" s="4"/>
+      <c r="GO13" s="4"/>
+      <c r="GP13" s="4"/>
+      <c r="GQ13" s="4"/>
+      <c r="GR13" s="4"/>
+      <c r="GS13" s="4"/>
+      <c r="GT13" s="4"/>
+      <c r="GU13" s="4"/>
+      <c r="GV13" s="4"/>
+      <c r="GW13" s="4"/>
+      <c r="GX13" s="4"/>
+      <c r="GY13" s="4"/>
+      <c r="GZ13" s="4"/>
+      <c r="HA13" s="4"/>
+      <c r="HB13" s="4"/>
+      <c r="HC13" s="4"/>
+      <c r="HD13" s="4"/>
+      <c r="HE13" s="4"/>
+      <c r="HF13" s="4"/>
+      <c r="HG13" s="4"/>
+      <c r="HH13" s="4"/>
+      <c r="HI13" s="4"/>
+      <c r="HJ13" s="4"/>
+      <c r="HK13" s="4"/>
+      <c r="HL13" s="4"/>
+      <c r="HM13" s="4"/>
+      <c r="HN13" s="4"/>
+      <c r="HO13" s="4"/>
+      <c r="HP13" s="4"/>
+      <c r="HQ13" s="4"/>
+      <c r="HR13" s="4"/>
+      <c r="HS13" s="4"/>
+      <c r="HT13" s="4"/>
+      <c r="HU13" s="4"/>
+      <c r="HV13" s="4"/>
+      <c r="HW13" s="4"/>
+      <c r="HX13" s="4"/>
+      <c r="HY13" s="4"/>
+      <c r="HZ13" s="4"/>
+      <c r="IA13" s="4"/>
+      <c r="IB13" s="4"/>
+      <c r="IC13" s="4"/>
+      <c r="ID13" s="4"/>
+      <c r="IE13" s="4"/>
+      <c r="IF13" s="4"/>
+      <c r="IG13" s="4"/>
+      <c r="IH13" s="4"/>
+      <c r="II13" s="4"/>
+      <c r="IJ13" s="4"/>
+      <c r="IK13" s="4"/>
+      <c r="IL13" s="4"/>
+      <c r="IM13" s="4"/>
+      <c r="IN13" s="4"/>
+      <c r="IO13" s="4"/>
+      <c r="IP13" s="4"/>
+      <c r="IQ13" s="4"/>
+      <c r="IR13" s="4"/>
+      <c r="IS13" s="4"/>
+      <c r="IT13" s="4"/>
+      <c r="IU13" s="4"/>
     </row>
-    <row r="10" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="3">
-        <v>34413</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="14" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
+      <c r="CB14" s="4"/>
+      <c r="CC14" s="4"/>
+      <c r="CD14" s="4"/>
+      <c r="CE14" s="4"/>
+      <c r="CF14" s="4"/>
+      <c r="CG14" s="4"/>
+      <c r="CH14" s="4"/>
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="4"/>
+      <c r="CK14" s="4"/>
+      <c r="CL14" s="4"/>
+      <c r="CM14" s="4"/>
+      <c r="CN14" s="4"/>
+      <c r="CO14" s="4"/>
+      <c r="CP14" s="4"/>
+      <c r="CQ14" s="4"/>
+      <c r="CR14" s="4"/>
+      <c r="CS14" s="4"/>
+      <c r="CT14" s="4"/>
+      <c r="CU14" s="4"/>
+      <c r="CV14" s="4"/>
+      <c r="CW14" s="4"/>
+      <c r="CX14" s="4"/>
+      <c r="CY14" s="4"/>
+      <c r="CZ14" s="4"/>
+      <c r="DA14" s="4"/>
+      <c r="DB14" s="4"/>
+      <c r="DC14" s="4"/>
+      <c r="DD14" s="4"/>
+      <c r="DE14" s="4"/>
+      <c r="DF14" s="4"/>
+      <c r="DG14" s="4"/>
+      <c r="DH14" s="4"/>
+      <c r="DI14" s="4"/>
+      <c r="DJ14" s="4"/>
+      <c r="DK14" s="4"/>
+      <c r="DL14" s="4"/>
+      <c r="DM14" s="4"/>
+      <c r="DN14" s="4"/>
+      <c r="DO14" s="4"/>
+      <c r="DP14" s="4"/>
+      <c r="DQ14" s="4"/>
+      <c r="DR14" s="4"/>
+      <c r="DS14" s="4"/>
+      <c r="DT14" s="4"/>
+      <c r="DU14" s="4"/>
+      <c r="DV14" s="4"/>
+      <c r="DW14" s="4"/>
+      <c r="DX14" s="4"/>
+      <c r="DY14" s="4"/>
+      <c r="DZ14" s="4"/>
+      <c r="EA14" s="4"/>
+      <c r="EB14" s="4"/>
+      <c r="EC14" s="4"/>
+      <c r="ED14" s="4"/>
+      <c r="EE14" s="4"/>
+      <c r="EF14" s="4"/>
+      <c r="EG14" s="4"/>
+      <c r="EH14" s="4"/>
+      <c r="EI14" s="4"/>
+      <c r="EJ14" s="4"/>
+      <c r="EK14" s="4"/>
+      <c r="EL14" s="4"/>
+      <c r="EM14" s="4"/>
+      <c r="EN14" s="4"/>
+      <c r="EO14" s="4"/>
+      <c r="EP14" s="4"/>
+      <c r="EQ14" s="4"/>
+      <c r="ER14" s="4"/>
+      <c r="ES14" s="4"/>
+      <c r="ET14" s="4"/>
+      <c r="EU14" s="4"/>
+      <c r="EV14" s="4"/>
+      <c r="EW14" s="4"/>
+      <c r="EX14" s="4"/>
+      <c r="EY14" s="4"/>
+      <c r="EZ14" s="4"/>
+      <c r="FA14" s="4"/>
+      <c r="FB14" s="4"/>
+      <c r="FC14" s="4"/>
+      <c r="FD14" s="4"/>
+      <c r="FE14" s="4"/>
+      <c r="FF14" s="4"/>
+      <c r="FG14" s="4"/>
+      <c r="FH14" s="4"/>
+      <c r="FI14" s="4"/>
+      <c r="FJ14" s="4"/>
+      <c r="FK14" s="4"/>
+      <c r="FL14" s="4"/>
+      <c r="FM14" s="4"/>
+      <c r="FN14" s="4"/>
+      <c r="FO14" s="4"/>
+      <c r="FP14" s="4"/>
+      <c r="FQ14" s="4"/>
+      <c r="FR14" s="4"/>
+      <c r="FS14" s="4"/>
+      <c r="FT14" s="4"/>
+      <c r="FU14" s="4"/>
+      <c r="FV14" s="4"/>
+      <c r="FW14" s="4"/>
+      <c r="FX14" s="4"/>
+      <c r="FY14" s="4"/>
+      <c r="FZ14" s="4"/>
+      <c r="GA14" s="4"/>
+      <c r="GB14" s="4"/>
+      <c r="GC14" s="4"/>
+      <c r="GD14" s="4"/>
+      <c r="GE14" s="4"/>
+      <c r="GF14" s="4"/>
+      <c r="GG14" s="4"/>
+      <c r="GH14" s="4"/>
+      <c r="GI14" s="4"/>
+      <c r="GJ14" s="4"/>
+      <c r="GK14" s="4"/>
+      <c r="GL14" s="4"/>
+      <c r="GM14" s="4"/>
+      <c r="GN14" s="4"/>
+      <c r="GO14" s="4"/>
+      <c r="GP14" s="4"/>
+      <c r="GQ14" s="4"/>
+      <c r="GR14" s="4"/>
+      <c r="GS14" s="4"/>
+      <c r="GT14" s="4"/>
+      <c r="GU14" s="4"/>
+      <c r="GV14" s="4"/>
+      <c r="GW14" s="4"/>
+      <c r="GX14" s="4"/>
+      <c r="GY14" s="4"/>
+      <c r="GZ14" s="4"/>
+      <c r="HA14" s="4"/>
+      <c r="HB14" s="4"/>
+      <c r="HC14" s="4"/>
+      <c r="HD14" s="4"/>
+      <c r="HE14" s="4"/>
+      <c r="HF14" s="4"/>
+      <c r="HG14" s="4"/>
+      <c r="HH14" s="4"/>
+      <c r="HI14" s="4"/>
+      <c r="HJ14" s="4"/>
+      <c r="HK14" s="4"/>
+      <c r="HL14" s="4"/>
+      <c r="HM14" s="4"/>
+      <c r="HN14" s="4"/>
+      <c r="HO14" s="4"/>
+      <c r="HP14" s="4"/>
+      <c r="HQ14" s="4"/>
+      <c r="HR14" s="4"/>
+      <c r="HS14" s="4"/>
+      <c r="HT14" s="4"/>
+      <c r="HU14" s="4"/>
+      <c r="HV14" s="4"/>
+      <c r="HW14" s="4"/>
+      <c r="HX14" s="4"/>
+      <c r="HY14" s="4"/>
+      <c r="HZ14" s="4"/>
+      <c r="IA14" s="4"/>
+      <c r="IB14" s="4"/>
+      <c r="IC14" s="4"/>
+      <c r="ID14" s="4"/>
+      <c r="IE14" s="4"/>
+      <c r="IF14" s="4"/>
+      <c r="IG14" s="4"/>
+      <c r="IH14" s="4"/>
+      <c r="II14" s="4"/>
+      <c r="IJ14" s="4"/>
+      <c r="IK14" s="4"/>
+      <c r="IL14" s="4"/>
+      <c r="IM14" s="4"/>
+      <c r="IN14" s="4"/>
+      <c r="IO14" s="4"/>
+      <c r="IP14" s="4"/>
+      <c r="IQ14" s="4"/>
+      <c r="IR14" s="4"/>
+      <c r="IS14" s="4"/>
+      <c r="IT14" s="4"/>
+      <c r="IU14" s="4"/>
     </row>
-    <row r="11" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="15" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="4"/>
+      <c r="BT15" s="4"/>
+      <c r="BU15" s="4"/>
+      <c r="BV15" s="4"/>
+      <c r="BW15" s="4"/>
+      <c r="BX15" s="4"/>
+      <c r="BY15" s="4"/>
+      <c r="BZ15" s="4"/>
+      <c r="CA15" s="4"/>
+      <c r="CB15" s="4"/>
+      <c r="CC15" s="4"/>
+      <c r="CD15" s="4"/>
+      <c r="CE15" s="4"/>
+      <c r="CF15" s="4"/>
+      <c r="CG15" s="4"/>
+      <c r="CH15" s="4"/>
+      <c r="CI15" s="4"/>
+      <c r="CJ15" s="4"/>
+      <c r="CK15" s="4"/>
+      <c r="CL15" s="4"/>
+      <c r="CM15" s="4"/>
+      <c r="CN15" s="4"/>
+      <c r="CO15" s="4"/>
+      <c r="CP15" s="4"/>
+      <c r="CQ15" s="4"/>
+      <c r="CR15" s="4"/>
+      <c r="CS15" s="4"/>
+      <c r="CT15" s="4"/>
+      <c r="CU15" s="4"/>
+      <c r="CV15" s="4"/>
+      <c r="CW15" s="4"/>
+      <c r="CX15" s="4"/>
+      <c r="CY15" s="4"/>
+      <c r="CZ15" s="4"/>
+      <c r="DA15" s="4"/>
+      <c r="DB15" s="4"/>
+      <c r="DC15" s="4"/>
+      <c r="DD15" s="4"/>
+      <c r="DE15" s="4"/>
+      <c r="DF15" s="4"/>
+      <c r="DG15" s="4"/>
+      <c r="DH15" s="4"/>
+      <c r="DI15" s="4"/>
+      <c r="DJ15" s="4"/>
+      <c r="DK15" s="4"/>
+      <c r="DL15" s="4"/>
+      <c r="DM15" s="4"/>
+      <c r="DN15" s="4"/>
+      <c r="DO15" s="4"/>
+      <c r="DP15" s="4"/>
+      <c r="DQ15" s="4"/>
+      <c r="DR15" s="4"/>
+      <c r="DS15" s="4"/>
+      <c r="DT15" s="4"/>
+      <c r="DU15" s="4"/>
+      <c r="DV15" s="4"/>
+      <c r="DW15" s="4"/>
+      <c r="DX15" s="4"/>
+      <c r="DY15" s="4"/>
+      <c r="DZ15" s="4"/>
+      <c r="EA15" s="4"/>
+      <c r="EB15" s="4"/>
+      <c r="EC15" s="4"/>
+      <c r="ED15" s="4"/>
+      <c r="EE15" s="4"/>
+      <c r="EF15" s="4"/>
+      <c r="EG15" s="4"/>
+      <c r="EH15" s="4"/>
+      <c r="EI15" s="4"/>
+      <c r="EJ15" s="4"/>
+      <c r="EK15" s="4"/>
+      <c r="EL15" s="4"/>
+      <c r="EM15" s="4"/>
+      <c r="EN15" s="4"/>
+      <c r="EO15" s="4"/>
+      <c r="EP15" s="4"/>
+      <c r="EQ15" s="4"/>
+      <c r="ER15" s="4"/>
+      <c r="ES15" s="4"/>
+      <c r="ET15" s="4"/>
+      <c r="EU15" s="4"/>
+      <c r="EV15" s="4"/>
+      <c r="EW15" s="4"/>
+      <c r="EX15" s="4"/>
+      <c r="EY15" s="4"/>
+      <c r="EZ15" s="4"/>
+      <c r="FA15" s="4"/>
+      <c r="FB15" s="4"/>
+      <c r="FC15" s="4"/>
+      <c r="FD15" s="4"/>
+      <c r="FE15" s="4"/>
+      <c r="FF15" s="4"/>
+      <c r="FG15" s="4"/>
+      <c r="FH15" s="4"/>
+      <c r="FI15" s="4"/>
+      <c r="FJ15" s="4"/>
+      <c r="FK15" s="4"/>
+      <c r="FL15" s="4"/>
+      <c r="FM15" s="4"/>
+      <c r="FN15" s="4"/>
+      <c r="FO15" s="4"/>
+      <c r="FP15" s="4"/>
+      <c r="FQ15" s="4"/>
+      <c r="FR15" s="4"/>
+      <c r="FS15" s="4"/>
+      <c r="FT15" s="4"/>
+      <c r="FU15" s="4"/>
+      <c r="FV15" s="4"/>
+      <c r="FW15" s="4"/>
+      <c r="FX15" s="4"/>
+      <c r="FY15" s="4"/>
+      <c r="FZ15" s="4"/>
+      <c r="GA15" s="4"/>
+      <c r="GB15" s="4"/>
+      <c r="GC15" s="4"/>
+      <c r="GD15" s="4"/>
+      <c r="GE15" s="4"/>
+      <c r="GF15" s="4"/>
+      <c r="GG15" s="4"/>
+      <c r="GH15" s="4"/>
+      <c r="GI15" s="4"/>
+      <c r="GJ15" s="4"/>
+      <c r="GK15" s="4"/>
+      <c r="GL15" s="4"/>
+      <c r="GM15" s="4"/>
+      <c r="GN15" s="4"/>
+      <c r="GO15" s="4"/>
+      <c r="GP15" s="4"/>
+      <c r="GQ15" s="4"/>
+      <c r="GR15" s="4"/>
+      <c r="GS15" s="4"/>
+      <c r="GT15" s="4"/>
+      <c r="GU15" s="4"/>
+      <c r="GV15" s="4"/>
+      <c r="GW15" s="4"/>
+      <c r="GX15" s="4"/>
+      <c r="GY15" s="4"/>
+      <c r="GZ15" s="4"/>
+      <c r="HA15" s="4"/>
+      <c r="HB15" s="4"/>
+      <c r="HC15" s="4"/>
+      <c r="HD15" s="4"/>
+      <c r="HE15" s="4"/>
+      <c r="HF15" s="4"/>
+      <c r="HG15" s="4"/>
+      <c r="HH15" s="4"/>
+      <c r="HI15" s="4"/>
+      <c r="HJ15" s="4"/>
+      <c r="HK15" s="4"/>
+      <c r="HL15" s="4"/>
+      <c r="HM15" s="4"/>
+      <c r="HN15" s="4"/>
+      <c r="HO15" s="4"/>
+      <c r="HP15" s="4"/>
+      <c r="HQ15" s="4"/>
+      <c r="HR15" s="4"/>
+      <c r="HS15" s="4"/>
+      <c r="HT15" s="4"/>
+      <c r="HU15" s="4"/>
+      <c r="HV15" s="4"/>
+      <c r="HW15" s="4"/>
+      <c r="HX15" s="4"/>
+      <c r="HY15" s="4"/>
+      <c r="HZ15" s="4"/>
+      <c r="IA15" s="4"/>
+      <c r="IB15" s="4"/>
+      <c r="IC15" s="4"/>
+      <c r="ID15" s="4"/>
+      <c r="IE15" s="4"/>
+      <c r="IF15" s="4"/>
+      <c r="IG15" s="4"/>
+      <c r="IH15" s="4"/>
+      <c r="II15" s="4"/>
+      <c r="IJ15" s="4"/>
+      <c r="IK15" s="4"/>
+      <c r="IL15" s="4"/>
+      <c r="IM15" s="4"/>
+      <c r="IN15" s="4"/>
+      <c r="IO15" s="4"/>
+      <c r="IP15" s="4"/>
+      <c r="IQ15" s="4"/>
+      <c r="IR15" s="4"/>
+      <c r="IS15" s="4"/>
+      <c r="IT15" s="4"/>
+      <c r="IU15" s="4"/>
     </row>
-    <row r="12" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="16" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="4"/>
+      <c r="BT16" s="4"/>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+      <c r="CF16" s="4"/>
+      <c r="CG16" s="4"/>
+      <c r="CH16" s="4"/>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="4"/>
+      <c r="CK16" s="4"/>
+      <c r="CL16" s="4"/>
+      <c r="CM16" s="4"/>
+      <c r="CN16" s="4"/>
+      <c r="CO16" s="4"/>
+      <c r="CP16" s="4"/>
+      <c r="CQ16" s="4"/>
+      <c r="CR16" s="4"/>
+      <c r="CS16" s="4"/>
+      <c r="CT16" s="4"/>
+      <c r="CU16" s="4"/>
+      <c r="CV16" s="4"/>
+      <c r="CW16" s="4"/>
+      <c r="CX16" s="4"/>
+      <c r="CY16" s="4"/>
+      <c r="CZ16" s="4"/>
+      <c r="DA16" s="4"/>
+      <c r="DB16" s="4"/>
+      <c r="DC16" s="4"/>
+      <c r="DD16" s="4"/>
+      <c r="DE16" s="4"/>
+      <c r="DF16" s="4"/>
+      <c r="DG16" s="4"/>
+      <c r="DH16" s="4"/>
+      <c r="DI16" s="4"/>
+      <c r="DJ16" s="4"/>
+      <c r="DK16" s="4"/>
+      <c r="DL16" s="4"/>
+      <c r="DM16" s="4"/>
+      <c r="DN16" s="4"/>
+      <c r="DO16" s="4"/>
+      <c r="DP16" s="4"/>
+      <c r="DQ16" s="4"/>
+      <c r="DR16" s="4"/>
+      <c r="DS16" s="4"/>
+      <c r="DT16" s="4"/>
+      <c r="DU16" s="4"/>
+      <c r="DV16" s="4"/>
+      <c r="DW16" s="4"/>
+      <c r="DX16" s="4"/>
+      <c r="DY16" s="4"/>
+      <c r="DZ16" s="4"/>
+      <c r="EA16" s="4"/>
+      <c r="EB16" s="4"/>
+      <c r="EC16" s="4"/>
+      <c r="ED16" s="4"/>
+      <c r="EE16" s="4"/>
+      <c r="EF16" s="4"/>
+      <c r="EG16" s="4"/>
+      <c r="EH16" s="4"/>
+      <c r="EI16" s="4"/>
+      <c r="EJ16" s="4"/>
+      <c r="EK16" s="4"/>
+      <c r="EL16" s="4"/>
+      <c r="EM16" s="4"/>
+      <c r="EN16" s="4"/>
+      <c r="EO16" s="4"/>
+      <c r="EP16" s="4"/>
+      <c r="EQ16" s="4"/>
+      <c r="ER16" s="4"/>
+      <c r="ES16" s="4"/>
+      <c r="ET16" s="4"/>
+      <c r="EU16" s="4"/>
+      <c r="EV16" s="4"/>
+      <c r="EW16" s="4"/>
+      <c r="EX16" s="4"/>
+      <c r="EY16" s="4"/>
+      <c r="EZ16" s="4"/>
+      <c r="FA16" s="4"/>
+      <c r="FB16" s="4"/>
+      <c r="FC16" s="4"/>
+      <c r="FD16" s="4"/>
+      <c r="FE16" s="4"/>
+      <c r="FF16" s="4"/>
+      <c r="FG16" s="4"/>
+      <c r="FH16" s="4"/>
+      <c r="FI16" s="4"/>
+      <c r="FJ16" s="4"/>
+      <c r="FK16" s="4"/>
+      <c r="FL16" s="4"/>
+      <c r="FM16" s="4"/>
+      <c r="FN16" s="4"/>
+      <c r="FO16" s="4"/>
+      <c r="FP16" s="4"/>
+      <c r="FQ16" s="4"/>
+      <c r="FR16" s="4"/>
+      <c r="FS16" s="4"/>
+      <c r="FT16" s="4"/>
+      <c r="FU16" s="4"/>
+      <c r="FV16" s="4"/>
+      <c r="FW16" s="4"/>
+      <c r="FX16" s="4"/>
+      <c r="FY16" s="4"/>
+      <c r="FZ16" s="4"/>
+      <c r="GA16" s="4"/>
+      <c r="GB16" s="4"/>
+      <c r="GC16" s="4"/>
+      <c r="GD16" s="4"/>
+      <c r="GE16" s="4"/>
+      <c r="GF16" s="4"/>
+      <c r="GG16" s="4"/>
+      <c r="GH16" s="4"/>
+      <c r="GI16" s="4"/>
+      <c r="GJ16" s="4"/>
+      <c r="GK16" s="4"/>
+      <c r="GL16" s="4"/>
+      <c r="GM16" s="4"/>
+      <c r="GN16" s="4"/>
+      <c r="GO16" s="4"/>
+      <c r="GP16" s="4"/>
+      <c r="GQ16" s="4"/>
+      <c r="GR16" s="4"/>
+      <c r="GS16" s="4"/>
+      <c r="GT16" s="4"/>
+      <c r="GU16" s="4"/>
+      <c r="GV16" s="4"/>
+      <c r="GW16" s="4"/>
+      <c r="GX16" s="4"/>
+      <c r="GY16" s="4"/>
+      <c r="GZ16" s="4"/>
+      <c r="HA16" s="4"/>
+      <c r="HB16" s="4"/>
+      <c r="HC16" s="4"/>
+      <c r="HD16" s="4"/>
+      <c r="HE16" s="4"/>
+      <c r="HF16" s="4"/>
+      <c r="HG16" s="4"/>
+      <c r="HH16" s="4"/>
+      <c r="HI16" s="4"/>
+      <c r="HJ16" s="4"/>
+      <c r="HK16" s="4"/>
+      <c r="HL16" s="4"/>
+      <c r="HM16" s="4"/>
+      <c r="HN16" s="4"/>
+      <c r="HO16" s="4"/>
+      <c r="HP16" s="4"/>
+      <c r="HQ16" s="4"/>
+      <c r="HR16" s="4"/>
+      <c r="HS16" s="4"/>
+      <c r="HT16" s="4"/>
+      <c r="HU16" s="4"/>
+      <c r="HV16" s="4"/>
+      <c r="HW16" s="4"/>
+      <c r="HX16" s="4"/>
+      <c r="HY16" s="4"/>
+      <c r="HZ16" s="4"/>
+      <c r="IA16" s="4"/>
+      <c r="IB16" s="4"/>
+      <c r="IC16" s="4"/>
+      <c r="ID16" s="4"/>
+      <c r="IE16" s="4"/>
+      <c r="IF16" s="4"/>
+      <c r="IG16" s="4"/>
+      <c r="IH16" s="4"/>
+      <c r="II16" s="4"/>
+      <c r="IJ16" s="4"/>
+      <c r="IK16" s="4"/>
+      <c r="IL16" s="4"/>
+      <c r="IM16" s="4"/>
+      <c r="IN16" s="4"/>
+      <c r="IO16" s="4"/>
+      <c r="IP16" s="4"/>
+      <c r="IQ16" s="4"/>
+      <c r="IR16" s="4"/>
+      <c r="IS16" s="4"/>
+      <c r="IT16" s="4"/>
+      <c r="IU16" s="4"/>
     </row>
-    <row r="13" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="17" spans="1:255" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="9"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="9"/>
+      <c r="CI17" s="9"/>
+      <c r="CJ17" s="9"/>
+      <c r="CK17" s="9"/>
+      <c r="CL17" s="9"/>
+      <c r="CM17" s="9"/>
+      <c r="CN17" s="9"/>
+      <c r="CO17" s="9"/>
+      <c r="CP17" s="9"/>
+      <c r="CQ17" s="9"/>
+      <c r="CR17" s="9"/>
+      <c r="CS17" s="9"/>
+      <c r="CT17" s="9"/>
+      <c r="CU17" s="9"/>
+      <c r="CV17" s="9"/>
+      <c r="CW17" s="9"/>
+      <c r="CX17" s="9"/>
+      <c r="CY17" s="9"/>
+      <c r="CZ17" s="9"/>
+      <c r="DA17" s="9"/>
+      <c r="DB17" s="9"/>
+      <c r="DC17" s="9"/>
+      <c r="DD17" s="9"/>
+      <c r="DE17" s="9"/>
+      <c r="DF17" s="9"/>
+      <c r="DG17" s="9"/>
+      <c r="DH17" s="9"/>
+      <c r="DI17" s="9"/>
+      <c r="DJ17" s="9"/>
+      <c r="DK17" s="9"/>
+      <c r="DL17" s="9"/>
+      <c r="DM17" s="9"/>
+      <c r="DN17" s="9"/>
+      <c r="DO17" s="9"/>
+      <c r="DP17" s="9"/>
+      <c r="DQ17" s="9"/>
+      <c r="DR17" s="9"/>
+      <c r="DS17" s="9"/>
+      <c r="DT17" s="9"/>
+      <c r="DU17" s="9"/>
+      <c r="DV17" s="9"/>
+      <c r="DW17" s="9"/>
+      <c r="DX17" s="9"/>
+      <c r="DY17" s="9"/>
+      <c r="DZ17" s="9"/>
+      <c r="EA17" s="9"/>
+      <c r="EB17" s="9"/>
+      <c r="EC17" s="9"/>
+      <c r="ED17" s="9"/>
+      <c r="EE17" s="9"/>
+      <c r="EF17" s="9"/>
+      <c r="EG17" s="9"/>
+      <c r="EH17" s="9"/>
+      <c r="EI17" s="9"/>
+      <c r="EJ17" s="9"/>
+      <c r="EK17" s="9"/>
+      <c r="EL17" s="9"/>
+      <c r="EM17" s="9"/>
+      <c r="EN17" s="9"/>
+      <c r="EO17" s="9"/>
+      <c r="EP17" s="9"/>
+      <c r="EQ17" s="9"/>
+      <c r="ER17" s="9"/>
+      <c r="ES17" s="9"/>
+      <c r="ET17" s="9"/>
+      <c r="EU17" s="9"/>
+      <c r="EV17" s="9"/>
+      <c r="EW17" s="9"/>
+      <c r="EX17" s="9"/>
+      <c r="EY17" s="9"/>
+      <c r="EZ17" s="9"/>
+      <c r="FA17" s="9"/>
+      <c r="FB17" s="9"/>
+      <c r="FC17" s="9"/>
+      <c r="FD17" s="9"/>
+      <c r="FE17" s="9"/>
+      <c r="FF17" s="9"/>
+      <c r="FG17" s="9"/>
+      <c r="FH17" s="9"/>
+      <c r="FI17" s="9"/>
+      <c r="FJ17" s="9"/>
+      <c r="FK17" s="9"/>
+      <c r="FL17" s="9"/>
+      <c r="FM17" s="9"/>
+      <c r="FN17" s="9"/>
+      <c r="FO17" s="9"/>
+      <c r="FP17" s="9"/>
+      <c r="FQ17" s="9"/>
+      <c r="FR17" s="9"/>
+      <c r="FS17" s="9"/>
+      <c r="FT17" s="9"/>
+      <c r="FU17" s="9"/>
+      <c r="FV17" s="9"/>
+      <c r="FW17" s="9"/>
+      <c r="FX17" s="9"/>
+      <c r="FY17" s="9"/>
+      <c r="FZ17" s="9"/>
+      <c r="GA17" s="9"/>
+      <c r="GB17" s="9"/>
+      <c r="GC17" s="9"/>
+      <c r="GD17" s="9"/>
+      <c r="GE17" s="9"/>
+      <c r="GF17" s="9"/>
+      <c r="GG17" s="9"/>
+      <c r="GH17" s="9"/>
+      <c r="GI17" s="9"/>
+      <c r="GJ17" s="9"/>
+      <c r="GK17" s="9"/>
+      <c r="GL17" s="9"/>
+      <c r="GM17" s="9"/>
+      <c r="GN17" s="9"/>
+      <c r="GO17" s="9"/>
+      <c r="GP17" s="9"/>
+      <c r="GQ17" s="9"/>
+      <c r="GR17" s="9"/>
+      <c r="GS17" s="9"/>
+      <c r="GT17" s="9"/>
+      <c r="GU17" s="9"/>
+      <c r="GV17" s="9"/>
+      <c r="GW17" s="9"/>
+      <c r="GX17" s="9"/>
+      <c r="GY17" s="9"/>
+      <c r="GZ17" s="9"/>
+      <c r="HA17" s="9"/>
+      <c r="HB17" s="9"/>
+      <c r="HC17" s="9"/>
+      <c r="HD17" s="9"/>
+      <c r="HE17" s="9"/>
+      <c r="HF17" s="9"/>
+      <c r="HG17" s="9"/>
+      <c r="HH17" s="9"/>
+      <c r="HI17" s="9"/>
+      <c r="HJ17" s="9"/>
+      <c r="HK17" s="9"/>
+      <c r="HL17" s="9"/>
+      <c r="HM17" s="9"/>
+      <c r="HN17" s="9"/>
+      <c r="HO17" s="9"/>
+      <c r="HP17" s="9"/>
+      <c r="HQ17" s="9"/>
+      <c r="HR17" s="9"/>
+      <c r="HS17" s="9"/>
+      <c r="HT17" s="9"/>
+      <c r="HU17" s="9"/>
+      <c r="HV17" s="9"/>
+      <c r="HW17" s="9"/>
+      <c r="HX17" s="9"/>
+      <c r="HY17" s="9"/>
+      <c r="HZ17" s="9"/>
+      <c r="IA17" s="9"/>
+      <c r="IB17" s="9"/>
+      <c r="IC17" s="9"/>
+      <c r="ID17" s="9"/>
+      <c r="IE17" s="9"/>
+      <c r="IF17" s="9"/>
+      <c r="IG17" s="9"/>
+      <c r="IH17" s="9"/>
+      <c r="II17" s="9"/>
+      <c r="IJ17" s="9"/>
+      <c r="IK17" s="9"/>
+      <c r="IL17" s="9"/>
+      <c r="IM17" s="9"/>
+      <c r="IN17" s="9"/>
+      <c r="IO17" s="9"/>
+      <c r="IP17" s="9"/>
+      <c r="IQ17" s="9"/>
+      <c r="IR17" s="9"/>
+      <c r="IS17" s="9"/>
+      <c r="IT17" s="9"/>
+      <c r="IU17" s="9"/>
     </row>
-    <row r="14" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="18" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="7"/>
+      <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+      <c r="BY18" s="7"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="7"/>
+      <c r="CM18" s="7"/>
+      <c r="CN18" s="7"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="7"/>
+      <c r="CQ18" s="7"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="7"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+      <c r="CV18" s="7"/>
+      <c r="CW18" s="7"/>
+      <c r="CX18" s="7"/>
+      <c r="CY18" s="7"/>
+      <c r="CZ18" s="7"/>
+      <c r="DA18" s="7"/>
+      <c r="DB18" s="7"/>
+      <c r="DC18" s="7"/>
+      <c r="DD18" s="7"/>
+      <c r="DE18" s="7"/>
+      <c r="DF18" s="7"/>
+      <c r="DG18" s="7"/>
+      <c r="DH18" s="7"/>
+      <c r="DI18" s="7"/>
+      <c r="DJ18" s="7"/>
+      <c r="DK18" s="7"/>
+      <c r="DL18" s="7"/>
+      <c r="DM18" s="7"/>
+      <c r="DN18" s="7"/>
+      <c r="DO18" s="7"/>
+      <c r="DP18" s="7"/>
+      <c r="DQ18" s="7"/>
+      <c r="DR18" s="7"/>
+      <c r="DS18" s="7"/>
+      <c r="DT18" s="7"/>
+      <c r="DU18" s="7"/>
+      <c r="DV18" s="7"/>
+      <c r="DW18" s="7"/>
+      <c r="DX18" s="7"/>
+      <c r="DY18" s="7"/>
+      <c r="DZ18" s="7"/>
+      <c r="EA18" s="7"/>
+      <c r="EB18" s="7"/>
+      <c r="EC18" s="7"/>
+      <c r="ED18" s="7"/>
+      <c r="EE18" s="7"/>
+      <c r="EF18" s="7"/>
+      <c r="EG18" s="7"/>
+      <c r="EH18" s="7"/>
+      <c r="EI18" s="7"/>
+      <c r="EJ18" s="7"/>
+      <c r="EK18" s="7"/>
+      <c r="EL18" s="7"/>
+      <c r="EM18" s="7"/>
+      <c r="EN18" s="7"/>
+      <c r="EO18" s="7"/>
+      <c r="EP18" s="7"/>
+      <c r="EQ18" s="7"/>
+      <c r="ER18" s="7"/>
+      <c r="ES18" s="7"/>
+      <c r="ET18" s="7"/>
+      <c r="EU18" s="7"/>
+      <c r="EV18" s="7"/>
+      <c r="EW18" s="7"/>
+      <c r="EX18" s="7"/>
+      <c r="EY18" s="7"/>
+      <c r="EZ18" s="7"/>
+      <c r="FA18" s="7"/>
+      <c r="FB18" s="7"/>
+      <c r="FC18" s="7"/>
+      <c r="FD18" s="7"/>
+      <c r="FE18" s="7"/>
+      <c r="FF18" s="7"/>
+      <c r="FG18" s="7"/>
+      <c r="FH18" s="7"/>
+      <c r="FI18" s="7"/>
+      <c r="FJ18" s="7"/>
+      <c r="FK18" s="7"/>
+      <c r="FL18" s="7"/>
+      <c r="FM18" s="7"/>
+      <c r="FN18" s="7"/>
+      <c r="FO18" s="7"/>
+      <c r="FP18" s="7"/>
+      <c r="FQ18" s="7"/>
+      <c r="FR18" s="7"/>
+      <c r="FS18" s="7"/>
+      <c r="FT18" s="7"/>
+      <c r="FU18" s="7"/>
+      <c r="FV18" s="7"/>
+      <c r="FW18" s="7"/>
+      <c r="FX18" s="7"/>
+      <c r="FY18" s="7"/>
+      <c r="FZ18" s="7"/>
+      <c r="GA18" s="7"/>
+      <c r="GB18" s="7"/>
+      <c r="GC18" s="7"/>
+      <c r="GD18" s="7"/>
+      <c r="GE18" s="7"/>
+      <c r="GF18" s="7"/>
+      <c r="GG18" s="7"/>
+      <c r="GH18" s="7"/>
+      <c r="GI18" s="7"/>
+      <c r="GJ18" s="7"/>
+      <c r="GK18" s="7"/>
+      <c r="GL18" s="7"/>
+      <c r="GM18" s="7"/>
+      <c r="GN18" s="7"/>
+      <c r="GO18" s="7"/>
+      <c r="GP18" s="7"/>
+      <c r="GQ18" s="7"/>
+      <c r="GR18" s="7"/>
+      <c r="GS18" s="7"/>
+      <c r="GT18" s="7"/>
+      <c r="GU18" s="7"/>
+      <c r="GV18" s="7"/>
+      <c r="GW18" s="7"/>
+      <c r="GX18" s="7"/>
+      <c r="GY18" s="7"/>
+      <c r="GZ18" s="7"/>
+      <c r="HA18" s="7"/>
+      <c r="HB18" s="7"/>
+      <c r="HC18" s="7"/>
+      <c r="HD18" s="7"/>
+      <c r="HE18" s="7"/>
+      <c r="HF18" s="7"/>
+      <c r="HG18" s="7"/>
+      <c r="HH18" s="7"/>
+      <c r="HI18" s="7"/>
+      <c r="HJ18" s="7"/>
+      <c r="HK18" s="7"/>
+      <c r="HL18" s="7"/>
+      <c r="HM18" s="7"/>
+      <c r="HN18" s="7"/>
+      <c r="HO18" s="7"/>
+      <c r="HP18" s="7"/>
+      <c r="HQ18" s="7"/>
+      <c r="HR18" s="7"/>
+      <c r="HS18" s="7"/>
+      <c r="HT18" s="7"/>
+      <c r="HU18" s="7"/>
+      <c r="HV18" s="7"/>
+      <c r="HW18" s="7"/>
+      <c r="HX18" s="7"/>
+      <c r="HY18" s="7"/>
+      <c r="HZ18" s="7"/>
+      <c r="IA18" s="7"/>
+      <c r="IB18" s="7"/>
+      <c r="IC18" s="7"/>
+      <c r="ID18" s="7"/>
+      <c r="IE18" s="7"/>
+      <c r="IF18" s="7"/>
+      <c r="IG18" s="7"/>
+      <c r="IH18" s="7"/>
+      <c r="II18" s="7"/>
+      <c r="IJ18" s="7"/>
+      <c r="IK18" s="7"/>
+      <c r="IL18" s="7"/>
+      <c r="IM18" s="7"/>
+      <c r="IN18" s="7"/>
+      <c r="IO18" s="7"/>
+      <c r="IP18" s="7"/>
+      <c r="IQ18" s="7"/>
+      <c r="IR18" s="7"/>
+      <c r="IS18" s="7"/>
+      <c r="IT18" s="7"/>
+      <c r="IU18" s="7"/>
     </row>
-    <row r="15" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="19" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+      <c r="BY19" s="7"/>
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7"/>
+      <c r="CJ19" s="7"/>
+      <c r="CK19" s="7"/>
+      <c r="CL19" s="7"/>
+      <c r="CM19" s="7"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="7"/>
+      <c r="CQ19" s="7"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="7"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
+      <c r="CV19" s="7"/>
+      <c r="CW19" s="7"/>
+      <c r="CX19" s="7"/>
+      <c r="CY19" s="7"/>
+      <c r="CZ19" s="7"/>
+      <c r="DA19" s="7"/>
+      <c r="DB19" s="7"/>
+      <c r="DC19" s="7"/>
+      <c r="DD19" s="7"/>
+      <c r="DE19" s="7"/>
+      <c r="DF19" s="7"/>
+      <c r="DG19" s="7"/>
+      <c r="DH19" s="7"/>
+      <c r="DI19" s="7"/>
+      <c r="DJ19" s="7"/>
+      <c r="DK19" s="7"/>
+      <c r="DL19" s="7"/>
+      <c r="DM19" s="7"/>
+      <c r="DN19" s="7"/>
+      <c r="DO19" s="7"/>
+      <c r="DP19" s="7"/>
+      <c r="DQ19" s="7"/>
+      <c r="DR19" s="7"/>
+      <c r="DS19" s="7"/>
+      <c r="DT19" s="7"/>
+      <c r="DU19" s="7"/>
+      <c r="DV19" s="7"/>
+      <c r="DW19" s="7"/>
+      <c r="DX19" s="7"/>
+      <c r="DY19" s="7"/>
+      <c r="DZ19" s="7"/>
+      <c r="EA19" s="7"/>
+      <c r="EB19" s="7"/>
+      <c r="EC19" s="7"/>
+      <c r="ED19" s="7"/>
+      <c r="EE19" s="7"/>
+      <c r="EF19" s="7"/>
+      <c r="EG19" s="7"/>
+      <c r="EH19" s="7"/>
+      <c r="EI19" s="7"/>
+      <c r="EJ19" s="7"/>
+      <c r="EK19" s="7"/>
+      <c r="EL19" s="7"/>
+      <c r="EM19" s="7"/>
+      <c r="EN19" s="7"/>
+      <c r="EO19" s="7"/>
+      <c r="EP19" s="7"/>
+      <c r="EQ19" s="7"/>
+      <c r="ER19" s="7"/>
+      <c r="ES19" s="7"/>
+      <c r="ET19" s="7"/>
+      <c r="EU19" s="7"/>
+      <c r="EV19" s="7"/>
+      <c r="EW19" s="7"/>
+      <c r="EX19" s="7"/>
+      <c r="EY19" s="7"/>
+      <c r="EZ19" s="7"/>
+      <c r="FA19" s="7"/>
+      <c r="FB19" s="7"/>
+      <c r="FC19" s="7"/>
+      <c r="FD19" s="7"/>
+      <c r="FE19" s="7"/>
+      <c r="FF19" s="7"/>
+      <c r="FG19" s="7"/>
+      <c r="FH19" s="7"/>
+      <c r="FI19" s="7"/>
+      <c r="FJ19" s="7"/>
+      <c r="FK19" s="7"/>
+      <c r="FL19" s="7"/>
+      <c r="FM19" s="7"/>
+      <c r="FN19" s="7"/>
+      <c r="FO19" s="7"/>
+      <c r="FP19" s="7"/>
+      <c r="FQ19" s="7"/>
+      <c r="FR19" s="7"/>
+      <c r="FS19" s="7"/>
+      <c r="FT19" s="7"/>
+      <c r="FU19" s="7"/>
+      <c r="FV19" s="7"/>
+      <c r="FW19" s="7"/>
+      <c r="FX19" s="7"/>
+      <c r="FY19" s="7"/>
+      <c r="FZ19" s="7"/>
+      <c r="GA19" s="7"/>
+      <c r="GB19" s="7"/>
+      <c r="GC19" s="7"/>
+      <c r="GD19" s="7"/>
+      <c r="GE19" s="7"/>
+      <c r="GF19" s="7"/>
+      <c r="GG19" s="7"/>
+      <c r="GH19" s="7"/>
+      <c r="GI19" s="7"/>
+      <c r="GJ19" s="7"/>
+      <c r="GK19" s="7"/>
+      <c r="GL19" s="7"/>
+      <c r="GM19" s="7"/>
+      <c r="GN19" s="7"/>
+      <c r="GO19" s="7"/>
+      <c r="GP19" s="7"/>
+      <c r="GQ19" s="7"/>
+      <c r="GR19" s="7"/>
+      <c r="GS19" s="7"/>
+      <c r="GT19" s="7"/>
+      <c r="GU19" s="7"/>
+      <c r="GV19" s="7"/>
+      <c r="GW19" s="7"/>
+      <c r="GX19" s="7"/>
+      <c r="GY19" s="7"/>
+      <c r="GZ19" s="7"/>
+      <c r="HA19" s="7"/>
+      <c r="HB19" s="7"/>
+      <c r="HC19" s="7"/>
+      <c r="HD19" s="7"/>
+      <c r="HE19" s="7"/>
+      <c r="HF19" s="7"/>
+      <c r="HG19" s="7"/>
+      <c r="HH19" s="7"/>
+      <c r="HI19" s="7"/>
+      <c r="HJ19" s="7"/>
+      <c r="HK19" s="7"/>
+      <c r="HL19" s="7"/>
+      <c r="HM19" s="7"/>
+      <c r="HN19" s="7"/>
+      <c r="HO19" s="7"/>
+      <c r="HP19" s="7"/>
+      <c r="HQ19" s="7"/>
+      <c r="HR19" s="7"/>
+      <c r="HS19" s="7"/>
+      <c r="HT19" s="7"/>
+      <c r="HU19" s="7"/>
+      <c r="HV19" s="7"/>
+      <c r="HW19" s="7"/>
+      <c r="HX19" s="7"/>
+      <c r="HY19" s="7"/>
+      <c r="HZ19" s="7"/>
+      <c r="IA19" s="7"/>
+      <c r="IB19" s="7"/>
+      <c r="IC19" s="7"/>
+      <c r="ID19" s="7"/>
+      <c r="IE19" s="7"/>
+      <c r="IF19" s="7"/>
+      <c r="IG19" s="7"/>
+      <c r="IH19" s="7"/>
+      <c r="II19" s="7"/>
+      <c r="IJ19" s="7"/>
+      <c r="IK19" s="7"/>
+      <c r="IL19" s="7"/>
+      <c r="IM19" s="7"/>
+      <c r="IN19" s="7"/>
+      <c r="IO19" s="7"/>
+      <c r="IP19" s="7"/>
+      <c r="IQ19" s="7"/>
+      <c r="IR19" s="7"/>
+      <c r="IS19" s="7"/>
+      <c r="IT19" s="7"/>
+      <c r="IU19" s="7"/>
     </row>
-    <row r="16" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="3">
-        <v>38148</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>266</v>
-      </c>
+    <row r="20" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="7"/>
+      <c r="BO20" s="7"/>
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7"/>
+      <c r="BR20" s="7"/>
+      <c r="BS20" s="7"/>
+      <c r="BT20" s="7"/>
+      <c r="BU20" s="7"/>
+      <c r="BV20" s="7"/>
+      <c r="BW20" s="7"/>
+      <c r="BX20" s="7"/>
+      <c r="BY20" s="7"/>
+      <c r="BZ20" s="7"/>
+      <c r="CA20" s="7"/>
+      <c r="CB20" s="7"/>
+      <c r="CC20" s="7"/>
+      <c r="CD20" s="7"/>
+      <c r="CE20" s="7"/>
+      <c r="CF20" s="7"/>
+      <c r="CG20" s="7"/>
+      <c r="CH20" s="7"/>
+      <c r="CI20" s="7"/>
+      <c r="CJ20" s="7"/>
+      <c r="CK20" s="7"/>
+      <c r="CL20" s="7"/>
+      <c r="CM20" s="7"/>
+      <c r="CN20" s="7"/>
+      <c r="CO20" s="7"/>
+      <c r="CP20" s="7"/>
+      <c r="CQ20" s="7"/>
+      <c r="CR20" s="7"/>
+      <c r="CS20" s="7"/>
+      <c r="CT20" s="7"/>
+      <c r="CU20" s="7"/>
+      <c r="CV20" s="7"/>
+      <c r="CW20" s="7"/>
+      <c r="CX20" s="7"/>
+      <c r="CY20" s="7"/>
+      <c r="CZ20" s="7"/>
+      <c r="DA20" s="7"/>
+      <c r="DB20" s="7"/>
+      <c r="DC20" s="7"/>
+      <c r="DD20" s="7"/>
+      <c r="DE20" s="7"/>
+      <c r="DF20" s="7"/>
+      <c r="DG20" s="7"/>
+      <c r="DH20" s="7"/>
+      <c r="DI20" s="7"/>
+      <c r="DJ20" s="7"/>
+      <c r="DK20" s="7"/>
+      <c r="DL20" s="7"/>
+      <c r="DM20" s="7"/>
+      <c r="DN20" s="7"/>
+      <c r="DO20" s="7"/>
+      <c r="DP20" s="7"/>
+      <c r="DQ20" s="7"/>
+      <c r="DR20" s="7"/>
+      <c r="DS20" s="7"/>
+      <c r="DT20" s="7"/>
+      <c r="DU20" s="7"/>
+      <c r="DV20" s="7"/>
+      <c r="DW20" s="7"/>
+      <c r="DX20" s="7"/>
+      <c r="DY20" s="7"/>
+      <c r="DZ20" s="7"/>
+      <c r="EA20" s="7"/>
+      <c r="EB20" s="7"/>
+      <c r="EC20" s="7"/>
+      <c r="ED20" s="7"/>
+      <c r="EE20" s="7"/>
+      <c r="EF20" s="7"/>
+      <c r="EG20" s="7"/>
+      <c r="EH20" s="7"/>
+      <c r="EI20" s="7"/>
+      <c r="EJ20" s="7"/>
+      <c r="EK20" s="7"/>
+      <c r="EL20" s="7"/>
+      <c r="EM20" s="7"/>
+      <c r="EN20" s="7"/>
+      <c r="EO20" s="7"/>
+      <c r="EP20" s="7"/>
+      <c r="EQ20" s="7"/>
+      <c r="ER20" s="7"/>
+      <c r="ES20" s="7"/>
+      <c r="ET20" s="7"/>
+      <c r="EU20" s="7"/>
+      <c r="EV20" s="7"/>
+      <c r="EW20" s="7"/>
+      <c r="EX20" s="7"/>
+      <c r="EY20" s="7"/>
+      <c r="EZ20" s="7"/>
+      <c r="FA20" s="7"/>
+      <c r="FB20" s="7"/>
+      <c r="FC20" s="7"/>
+      <c r="FD20" s="7"/>
+      <c r="FE20" s="7"/>
+      <c r="FF20" s="7"/>
+      <c r="FG20" s="7"/>
+      <c r="FH20" s="7"/>
+      <c r="FI20" s="7"/>
+      <c r="FJ20" s="7"/>
+      <c r="FK20" s="7"/>
+      <c r="FL20" s="7"/>
+      <c r="FM20" s="7"/>
+      <c r="FN20" s="7"/>
+      <c r="FO20" s="7"/>
+      <c r="FP20" s="7"/>
+      <c r="FQ20" s="7"/>
+      <c r="FR20" s="7"/>
+      <c r="FS20" s="7"/>
+      <c r="FT20" s="7"/>
+      <c r="FU20" s="7"/>
+      <c r="FV20" s="7"/>
+      <c r="FW20" s="7"/>
+      <c r="FX20" s="7"/>
+      <c r="FY20" s="7"/>
+      <c r="FZ20" s="7"/>
+      <c r="GA20" s="7"/>
+      <c r="GB20" s="7"/>
+      <c r="GC20" s="7"/>
+      <c r="GD20" s="7"/>
+      <c r="GE20" s="7"/>
+      <c r="GF20" s="7"/>
+      <c r="GG20" s="7"/>
+      <c r="GH20" s="7"/>
+      <c r="GI20" s="7"/>
+      <c r="GJ20" s="7"/>
+      <c r="GK20" s="7"/>
+      <c r="GL20" s="7"/>
+      <c r="GM20" s="7"/>
+      <c r="GN20" s="7"/>
+      <c r="GO20" s="7"/>
+      <c r="GP20" s="7"/>
+      <c r="GQ20" s="7"/>
+      <c r="GR20" s="7"/>
+      <c r="GS20" s="7"/>
+      <c r="GT20" s="7"/>
+      <c r="GU20" s="7"/>
+      <c r="GV20" s="7"/>
+      <c r="GW20" s="7"/>
+      <c r="GX20" s="7"/>
+      <c r="GY20" s="7"/>
+      <c r="GZ20" s="7"/>
+      <c r="HA20" s="7"/>
+      <c r="HB20" s="7"/>
+      <c r="HC20" s="7"/>
+      <c r="HD20" s="7"/>
+      <c r="HE20" s="7"/>
+      <c r="HF20" s="7"/>
+      <c r="HG20" s="7"/>
+      <c r="HH20" s="7"/>
+      <c r="HI20" s="7"/>
+      <c r="HJ20" s="7"/>
+      <c r="HK20" s="7"/>
+      <c r="HL20" s="7"/>
+      <c r="HM20" s="7"/>
+      <c r="HN20" s="7"/>
+      <c r="HO20" s="7"/>
+      <c r="HP20" s="7"/>
+      <c r="HQ20" s="7"/>
+      <c r="HR20" s="7"/>
+      <c r="HS20" s="7"/>
+      <c r="HT20" s="7"/>
+      <c r="HU20" s="7"/>
+      <c r="HV20" s="7"/>
+      <c r="HW20" s="7"/>
+      <c r="HX20" s="7"/>
+      <c r="HY20" s="7"/>
+      <c r="HZ20" s="7"/>
+      <c r="IA20" s="7"/>
+      <c r="IB20" s="7"/>
+      <c r="IC20" s="7"/>
+      <c r="ID20" s="7"/>
+      <c r="IE20" s="7"/>
+      <c r="IF20" s="7"/>
+      <c r="IG20" s="7"/>
+      <c r="IH20" s="7"/>
+      <c r="II20" s="7"/>
+      <c r="IJ20" s="7"/>
+      <c r="IK20" s="7"/>
+      <c r="IL20" s="7"/>
+      <c r="IM20" s="7"/>
+      <c r="IN20" s="7"/>
+      <c r="IO20" s="7"/>
+      <c r="IP20" s="7"/>
+      <c r="IQ20" s="7"/>
+      <c r="IR20" s="7"/>
+      <c r="IS20" s="7"/>
+      <c r="IT20" s="7"/>
+      <c r="IU20" s="7"/>
+    </row>
+    <row r="21" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="7"/>
+      <c r="BK21" s="7"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+      <c r="BT21" s="7"/>
+      <c r="BU21" s="7"/>
+      <c r="BV21" s="7"/>
+      <c r="BW21" s="7"/>
+      <c r="BX21" s="7"/>
+      <c r="BY21" s="7"/>
+      <c r="BZ21" s="7"/>
+      <c r="CA21" s="7"/>
+      <c r="CB21" s="7"/>
+      <c r="CC21" s="7"/>
+      <c r="CD21" s="7"/>
+      <c r="CE21" s="7"/>
+      <c r="CF21" s="7"/>
+      <c r="CG21" s="7"/>
+      <c r="CH21" s="7"/>
+      <c r="CI21" s="7"/>
+      <c r="CJ21" s="7"/>
+      <c r="CK21" s="7"/>
+      <c r="CL21" s="7"/>
+      <c r="CM21" s="7"/>
+      <c r="CN21" s="7"/>
+      <c r="CO21" s="7"/>
+      <c r="CP21" s="7"/>
+      <c r="CQ21" s="7"/>
+      <c r="CR21" s="7"/>
+      <c r="CS21" s="7"/>
+      <c r="CT21" s="7"/>
+      <c r="CU21" s="7"/>
+      <c r="CV21" s="7"/>
+      <c r="CW21" s="7"/>
+      <c r="CX21" s="7"/>
+      <c r="CY21" s="7"/>
+      <c r="CZ21" s="7"/>
+      <c r="DA21" s="7"/>
+      <c r="DB21" s="7"/>
+      <c r="DC21" s="7"/>
+      <c r="DD21" s="7"/>
+      <c r="DE21" s="7"/>
+      <c r="DF21" s="7"/>
+      <c r="DG21" s="7"/>
+      <c r="DH21" s="7"/>
+      <c r="DI21" s="7"/>
+      <c r="DJ21" s="7"/>
+      <c r="DK21" s="7"/>
+      <c r="DL21" s="7"/>
+      <c r="DM21" s="7"/>
+      <c r="DN21" s="7"/>
+      <c r="DO21" s="7"/>
+      <c r="DP21" s="7"/>
+      <c r="DQ21" s="7"/>
+      <c r="DR21" s="7"/>
+      <c r="DS21" s="7"/>
+      <c r="DT21" s="7"/>
+      <c r="DU21" s="7"/>
+      <c r="DV21" s="7"/>
+      <c r="DW21" s="7"/>
+      <c r="DX21" s="7"/>
+      <c r="DY21" s="7"/>
+      <c r="DZ21" s="7"/>
+      <c r="EA21" s="7"/>
+      <c r="EB21" s="7"/>
+      <c r="EC21" s="7"/>
+      <c r="ED21" s="7"/>
+      <c r="EE21" s="7"/>
+      <c r="EF21" s="7"/>
+      <c r="EG21" s="7"/>
+      <c r="EH21" s="7"/>
+      <c r="EI21" s="7"/>
+      <c r="EJ21" s="7"/>
+      <c r="EK21" s="7"/>
+      <c r="EL21" s="7"/>
+      <c r="EM21" s="7"/>
+      <c r="EN21" s="7"/>
+      <c r="EO21" s="7"/>
+      <c r="EP21" s="7"/>
+      <c r="EQ21" s="7"/>
+      <c r="ER21" s="7"/>
+      <c r="ES21" s="7"/>
+      <c r="ET21" s="7"/>
+      <c r="EU21" s="7"/>
+      <c r="EV21" s="7"/>
+      <c r="EW21" s="7"/>
+      <c r="EX21" s="7"/>
+      <c r="EY21" s="7"/>
+      <c r="EZ21" s="7"/>
+      <c r="FA21" s="7"/>
+      <c r="FB21" s="7"/>
+      <c r="FC21" s="7"/>
+      <c r="FD21" s="7"/>
+      <c r="FE21" s="7"/>
+      <c r="FF21" s="7"/>
+      <c r="FG21" s="7"/>
+      <c r="FH21" s="7"/>
+      <c r="FI21" s="7"/>
+      <c r="FJ21" s="7"/>
+      <c r="FK21" s="7"/>
+      <c r="FL21" s="7"/>
+      <c r="FM21" s="7"/>
+      <c r="FN21" s="7"/>
+      <c r="FO21" s="7"/>
+      <c r="FP21" s="7"/>
+      <c r="FQ21" s="7"/>
+      <c r="FR21" s="7"/>
+      <c r="FS21" s="7"/>
+      <c r="FT21" s="7"/>
+      <c r="FU21" s="7"/>
+      <c r="FV21" s="7"/>
+      <c r="FW21" s="7"/>
+      <c r="FX21" s="7"/>
+      <c r="FY21" s="7"/>
+      <c r="FZ21" s="7"/>
+      <c r="GA21" s="7"/>
+      <c r="GB21" s="7"/>
+      <c r="GC21" s="7"/>
+      <c r="GD21" s="7"/>
+      <c r="GE21" s="7"/>
+      <c r="GF21" s="7"/>
+      <c r="GG21" s="7"/>
+      <c r="GH21" s="7"/>
+      <c r="GI21" s="7"/>
+      <c r="GJ21" s="7"/>
+      <c r="GK21" s="7"/>
+      <c r="GL21" s="7"/>
+      <c r="GM21" s="7"/>
+      <c r="GN21" s="7"/>
+      <c r="GO21" s="7"/>
+      <c r="GP21" s="7"/>
+      <c r="GQ21" s="7"/>
+      <c r="GR21" s="7"/>
+      <c r="GS21" s="7"/>
+      <c r="GT21" s="7"/>
+      <c r="GU21" s="7"/>
+      <c r="GV21" s="7"/>
+      <c r="GW21" s="7"/>
+      <c r="GX21" s="7"/>
+      <c r="GY21" s="7"/>
+      <c r="GZ21" s="7"/>
+      <c r="HA21" s="7"/>
+      <c r="HB21" s="7"/>
+      <c r="HC21" s="7"/>
+      <c r="HD21" s="7"/>
+      <c r="HE21" s="7"/>
+      <c r="HF21" s="7"/>
+      <c r="HG21" s="7"/>
+      <c r="HH21" s="7"/>
+      <c r="HI21" s="7"/>
+      <c r="HJ21" s="7"/>
+      <c r="HK21" s="7"/>
+      <c r="HL21" s="7"/>
+      <c r="HM21" s="7"/>
+      <c r="HN21" s="7"/>
+      <c r="HO21" s="7"/>
+      <c r="HP21" s="7"/>
+      <c r="HQ21" s="7"/>
+      <c r="HR21" s="7"/>
+      <c r="HS21" s="7"/>
+      <c r="HT21" s="7"/>
+      <c r="HU21" s="7"/>
+      <c r="HV21" s="7"/>
+      <c r="HW21" s="7"/>
+      <c r="HX21" s="7"/>
+      <c r="HY21" s="7"/>
+      <c r="HZ21" s="7"/>
+      <c r="IA21" s="7"/>
+      <c r="IB21" s="7"/>
+      <c r="IC21" s="7"/>
+      <c r="ID21" s="7"/>
+      <c r="IE21" s="7"/>
+      <c r="IF21" s="7"/>
+      <c r="IG21" s="7"/>
+      <c r="IH21" s="7"/>
+      <c r="II21" s="7"/>
+      <c r="IJ21" s="7"/>
+      <c r="IK21" s="7"/>
+      <c r="IL21" s="7"/>
+      <c r="IM21" s="7"/>
+      <c r="IN21" s="7"/>
+      <c r="IO21" s="7"/>
+      <c r="IP21" s="7"/>
+      <c r="IQ21" s="7"/>
+      <c r="IR21" s="7"/>
+      <c r="IS21" s="7"/>
+      <c r="IT21" s="7"/>
+      <c r="IU21" s="7"/>
+    </row>
+    <row r="22" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
+      <c r="BU22" s="7"/>
+      <c r="BV22" s="7"/>
+      <c r="BW22" s="7"/>
+      <c r="BX22" s="7"/>
+      <c r="BY22" s="7"/>
+      <c r="BZ22" s="7"/>
+      <c r="CA22" s="7"/>
+      <c r="CB22" s="7"/>
+      <c r="CC22" s="7"/>
+      <c r="CD22" s="7"/>
+      <c r="CE22" s="7"/>
+      <c r="CF22" s="7"/>
+      <c r="CG22" s="7"/>
+      <c r="CH22" s="7"/>
+      <c r="CI22" s="7"/>
+      <c r="CJ22" s="7"/>
+      <c r="CK22" s="7"/>
+      <c r="CL22" s="7"/>
+      <c r="CM22" s="7"/>
+      <c r="CN22" s="7"/>
+      <c r="CO22" s="7"/>
+      <c r="CP22" s="7"/>
+      <c r="CQ22" s="7"/>
+      <c r="CR22" s="7"/>
+      <c r="CS22" s="7"/>
+      <c r="CT22" s="7"/>
+      <c r="CU22" s="7"/>
+      <c r="CV22" s="7"/>
+      <c r="CW22" s="7"/>
+      <c r="CX22" s="7"/>
+      <c r="CY22" s="7"/>
+      <c r="CZ22" s="7"/>
+      <c r="DA22" s="7"/>
+      <c r="DB22" s="7"/>
+      <c r="DC22" s="7"/>
+      <c r="DD22" s="7"/>
+      <c r="DE22" s="7"/>
+      <c r="DF22" s="7"/>
+      <c r="DG22" s="7"/>
+      <c r="DH22" s="7"/>
+      <c r="DI22" s="7"/>
+      <c r="DJ22" s="7"/>
+      <c r="DK22" s="7"/>
+      <c r="DL22" s="7"/>
+      <c r="DM22" s="7"/>
+      <c r="DN22" s="7"/>
+      <c r="DO22" s="7"/>
+      <c r="DP22" s="7"/>
+      <c r="DQ22" s="7"/>
+      <c r="DR22" s="7"/>
+      <c r="DS22" s="7"/>
+      <c r="DT22" s="7"/>
+      <c r="DU22" s="7"/>
+      <c r="DV22" s="7"/>
+      <c r="DW22" s="7"/>
+      <c r="DX22" s="7"/>
+      <c r="DY22" s="7"/>
+      <c r="DZ22" s="7"/>
+      <c r="EA22" s="7"/>
+      <c r="EB22" s="7"/>
+      <c r="EC22" s="7"/>
+      <c r="ED22" s="7"/>
+      <c r="EE22" s="7"/>
+      <c r="EF22" s="7"/>
+      <c r="EG22" s="7"/>
+      <c r="EH22" s="7"/>
+      <c r="EI22" s="7"/>
+      <c r="EJ22" s="7"/>
+      <c r="EK22" s="7"/>
+      <c r="EL22" s="7"/>
+      <c r="EM22" s="7"/>
+      <c r="EN22" s="7"/>
+      <c r="EO22" s="7"/>
+      <c r="EP22" s="7"/>
+      <c r="EQ22" s="7"/>
+      <c r="ER22" s="7"/>
+      <c r="ES22" s="7"/>
+      <c r="ET22" s="7"/>
+      <c r="EU22" s="7"/>
+      <c r="EV22" s="7"/>
+      <c r="EW22" s="7"/>
+      <c r="EX22" s="7"/>
+      <c r="EY22" s="7"/>
+      <c r="EZ22" s="7"/>
+      <c r="FA22" s="7"/>
+      <c r="FB22" s="7"/>
+      <c r="FC22" s="7"/>
+      <c r="FD22" s="7"/>
+      <c r="FE22" s="7"/>
+      <c r="FF22" s="7"/>
+      <c r="FG22" s="7"/>
+      <c r="FH22" s="7"/>
+      <c r="FI22" s="7"/>
+      <c r="FJ22" s="7"/>
+      <c r="FK22" s="7"/>
+      <c r="FL22" s="7"/>
+      <c r="FM22" s="7"/>
+      <c r="FN22" s="7"/>
+      <c r="FO22" s="7"/>
+      <c r="FP22" s="7"/>
+      <c r="FQ22" s="7"/>
+      <c r="FR22" s="7"/>
+      <c r="FS22" s="7"/>
+      <c r="FT22" s="7"/>
+      <c r="FU22" s="7"/>
+      <c r="FV22" s="7"/>
+      <c r="FW22" s="7"/>
+      <c r="FX22" s="7"/>
+      <c r="FY22" s="7"/>
+      <c r="FZ22" s="7"/>
+      <c r="GA22" s="7"/>
+      <c r="GB22" s="7"/>
+      <c r="GC22" s="7"/>
+      <c r="GD22" s="7"/>
+      <c r="GE22" s="7"/>
+      <c r="GF22" s="7"/>
+      <c r="GG22" s="7"/>
+      <c r="GH22" s="7"/>
+      <c r="GI22" s="7"/>
+      <c r="GJ22" s="7"/>
+      <c r="GK22" s="7"/>
+      <c r="GL22" s="7"/>
+      <c r="GM22" s="7"/>
+      <c r="GN22" s="7"/>
+      <c r="GO22" s="7"/>
+      <c r="GP22" s="7"/>
+      <c r="GQ22" s="7"/>
+      <c r="GR22" s="7"/>
+      <c r="GS22" s="7"/>
+      <c r="GT22" s="7"/>
+      <c r="GU22" s="7"/>
+      <c r="GV22" s="7"/>
+      <c r="GW22" s="7"/>
+      <c r="GX22" s="7"/>
+      <c r="GY22" s="7"/>
+      <c r="GZ22" s="7"/>
+      <c r="HA22" s="7"/>
+      <c r="HB22" s="7"/>
+      <c r="HC22" s="7"/>
+      <c r="HD22" s="7"/>
+      <c r="HE22" s="7"/>
+      <c r="HF22" s="7"/>
+      <c r="HG22" s="7"/>
+      <c r="HH22" s="7"/>
+      <c r="HI22" s="7"/>
+      <c r="HJ22" s="7"/>
+      <c r="HK22" s="7"/>
+      <c r="HL22" s="7"/>
+      <c r="HM22" s="7"/>
+      <c r="HN22" s="7"/>
+      <c r="HO22" s="7"/>
+      <c r="HP22" s="7"/>
+      <c r="HQ22" s="7"/>
+      <c r="HR22" s="7"/>
+      <c r="HS22" s="7"/>
+      <c r="HT22" s="7"/>
+      <c r="HU22" s="7"/>
+      <c r="HV22" s="7"/>
+      <c r="HW22" s="7"/>
+      <c r="HX22" s="7"/>
+      <c r="HY22" s="7"/>
+      <c r="HZ22" s="7"/>
+      <c r="IA22" s="7"/>
+      <c r="IB22" s="7"/>
+      <c r="IC22" s="7"/>
+      <c r="ID22" s="7"/>
+      <c r="IE22" s="7"/>
+      <c r="IF22" s="7"/>
+      <c r="IG22" s="7"/>
+      <c r="IH22" s="7"/>
+      <c r="II22" s="7"/>
+      <c r="IJ22" s="7"/>
+      <c r="IK22" s="7"/>
+      <c r="IL22" s="7"/>
+      <c r="IM22" s="7"/>
+      <c r="IN22" s="7"/>
+      <c r="IO22" s="7"/>
+      <c r="IP22" s="7"/>
+      <c r="IQ22" s="7"/>
+      <c r="IR22" s="7"/>
+      <c r="IS22" s="7"/>
+      <c r="IT22" s="7"/>
+      <c r="IU22" s="7"/>
+    </row>
+    <row r="23" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2957,7 +7187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV6"/>
   <sheetViews>
@@ -2965,118 +7195,118 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.88671875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.6640625" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="55" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="254" width="9.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="255" max="255" width="4.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="254" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="255" max="255" width="4.88671875" style="2" customWidth="1" collapsed="1"/>
     <col min="256" max="256" width="55" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +7320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
@@ -3098,179 +7328,179 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="123.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="256" width="9.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="123.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="256" width="9.109375" style="2" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B12" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Mendix/input/Mendix_TestPlan.xlsx
+++ b/Mendix/input/Mendix_TestPlan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\New folder\MIP\Mendix\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Avaniheineken\MIP\Mendix\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA09209-B219-48D7-BD25-5724ADF15CEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="376">
   <si>
     <t>S.NO</t>
   </si>
@@ -788,6 +789,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>Create_Material</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -821,33 +825,57 @@
     <t>2</t>
   </si>
   <si>
+    <t>Create_Material_Draft</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>Create_Material_Global_Local_NAV</t>
+  </si>
+  <si>
     <t>1377436</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Create_Material_Global_and_Local_for_JDE</t>
+  </si>
+  <si>
     <t>1416104</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>ChangeMaterial_Nav</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t>ChangeMaterial_Reject_Discard</t>
+  </si>
+  <si>
     <t>1402111</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>Create_Vendor_with_Questionnaire_only_Global</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_JDE</t>
+  </si>
+  <si>
     <t>1416843</t>
   </si>
   <si>
@@ -857,12 +885,63 @@
     <t>BE01</t>
   </si>
   <si>
+    <t>Create with ref Global Only - SAP Direct Copy with Rejections</t>
+  </si>
+  <si>
+    <t>Create Vendor Happy flow - with disable Local and Bank Request(SAP)</t>
+  </si>
+  <si>
+    <t>1420073</t>
+  </si>
+  <si>
+    <t>503159</t>
+  </si>
+  <si>
+    <t>Create Material with Questionnaire only Global - SAP Duplicate Found, Extend Selected</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Create_Vendor_Happy_flow-with_disable_Local_and_Bank_Request(SAP)</t>
+  </si>
+  <si>
+    <t>1421321</t>
+  </si>
+  <si>
+    <t>504364</t>
+  </si>
+  <si>
+    <t>1000114831</t>
+  </si>
+  <si>
     <t>SG04</t>
   </si>
   <si>
+    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE</t>
+  </si>
+  <si>
+    <t>1313370</t>
+  </si>
+  <si>
+    <t>14842</t>
+  </si>
+  <si>
+    <t>Change _vendor_global _Only</t>
+  </si>
+  <si>
     <t>PA01</t>
   </si>
   <si>
+    <t>Create_Vendor_with_Questionnaire_with_Global_and_Local_NAV</t>
+  </si>
+  <si>
+    <t>DZ01</t>
+  </si>
+  <si>
+    <t>Create_Material_Global_and_Local_for_nav_Duplicate_not_Found</t>
+  </si>
+  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -992,40 +1071,92 @@
     <t>Production | Raw material, ingredient or processing aid</t>
   </si>
   <si>
+    <t>Extend Vendor Global and Local from JDE to  NAV(With Local data adding)</t>
+  </si>
+  <si>
     <t>MZCB</t>
   </si>
   <si>
+    <t>Extend Material Global and Local from SAP to  NAV with Rejections(With Local data adding)</t>
+  </si>
+  <si>
+    <t>1422592</t>
+  </si>
+  <si>
+    <t>47047</t>
+  </si>
+  <si>
     <t>Material Description</t>
   </si>
   <si>
-    <t>14Create Vendor with Questionnaire only Global</t>
-  </si>
-  <si>
-    <t>9Create Material with Questionnaire only Global</t>
-  </si>
-  <si>
-    <t>10Create Material with Questionnaire only Global with Rejections</t>
-  </si>
-  <si>
-    <t>8Create Material Global and Local for nav</t>
-  </si>
-  <si>
-    <t>22Create Vendor with Questionnaire with Global and Local_NAV</t>
-  </si>
-  <si>
-    <t>23Create Vendor with Questionnaire with Global and Local with Rejections_NAV</t>
-  </si>
-  <si>
-    <t>17Create Vendor with Questionnaire with Global and Local_JDE</t>
-  </si>
-  <si>
-    <t>18Create_Vendor_Happy Flow Global and Local with Rejections_JDE</t>
+    <t>Create with ref Global and local - NAV Direct Copy</t>
+  </si>
+  <si>
+    <t>Heineken_Sample_two_one</t>
+  </si>
+  <si>
+    <t>Create Material Global and Local for NAV Duplicate not Found</t>
+  </si>
+  <si>
+    <t>UoM</t>
+  </si>
+  <si>
+    <t>504398</t>
+  </si>
+  <si>
+    <t>1424050</t>
+  </si>
+  <si>
+    <t>416044</t>
+  </si>
+  <si>
+    <t>1424083</t>
+  </si>
+  <si>
+    <t>504412</t>
+  </si>
+  <si>
+    <t>Extend same target system - Extend Global for SAP</t>
+  </si>
+  <si>
+    <t>1424111</t>
+  </si>
+  <si>
+    <t>416057</t>
+  </si>
+  <si>
+    <t>52Happy Flag for deletion(Not Shared with Multi OpCos) - JDE_Material</t>
+  </si>
+  <si>
+    <t>416495</t>
+  </si>
+  <si>
+    <t>1425554</t>
+  </si>
+  <si>
+    <t>46Extend_same_target system - Extend_Global_and_Local_for_Non_SAP JDE</t>
+  </si>
+  <si>
+    <t>416496</t>
+  </si>
+  <si>
+    <t>1425569</t>
+  </si>
+  <si>
+    <t>416501</t>
+  </si>
+  <si>
+    <t>51.Happy Flag For Deletion(Not Shared With Multiple Opcos)_SAP</t>
+  </si>
+  <si>
+    <t>1425585</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1431,30 +1562,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IV24"/>
+  <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="14.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="17" max="256" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="9.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="75.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="9.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="11.109375" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="2" width="14.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="23.109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="23.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="12.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
+    <col min="17" max="256" customWidth="true" style="2" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,7 +1640,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>16</v>
@@ -2229,49 +2362,49 @@
         <v>254</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>325</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -2515,52 +2648,52 @@
     </row>
     <row r="3" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2804,52 +2937,52 @@
     </row>
     <row r="4" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>327</v>
+        <v>128</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -3093,52 +3226,52 @@
     </row>
     <row r="5" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -3382,52 +3515,52 @@
     </row>
     <row r="6" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -3671,170 +3804,196 @@
     </row>
     <row r="7" spans="1:255" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M7" s="4">
         <v>30007783</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:255" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>278</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M8" s="4">
         <v>30007783</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:255" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M9" s="4">
         <v>30007783</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -4077,21 +4236,47 @@
       <c r="IU10" s="4"/>
     </row>
     <row r="11" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -4334,21 +4519,49 @@
       <c r="IU11" s="4"/>
     </row>
     <row r="12" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="4">
+        <v>27787</v>
+      </c>
+      <c r="L12" s="4">
+        <v>30007258</v>
+      </c>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -4591,21 +4804,49 @@
       <c r="IU12" s="4"/>
     </row>
     <row r="13" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -4848,21 +5089,47 @@
       <c r="IU13" s="4"/>
     </row>
     <row r="14" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -5105,21 +5372,47 @@
       <c r="IU14" s="4"/>
     </row>
     <row r="15" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -5362,21 +5655,47 @@
       <c r="IU15" s="4"/>
     </row>
     <row r="16" spans="1:255" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -5619,21 +5938,51 @@
       <c r="IU16" s="4"/>
     </row>
     <row r="17" spans="1:255" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -5876,17 +6225,39 @@
       <c r="IU17" s="9"/>
     </row>
     <row r="18" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1421407</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7">
+        <v>14841</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -6133,17 +6504,39 @@
       <c r="IU18" s="7"/>
     </row>
     <row r="19" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -6390,23 +6783,57 @@
       <c r="IU19" s="7"/>
     </row>
     <row r="20" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="7"/>
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1421407</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="7">
+        <v>34506</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -6647,17 +7074,39 @@
       <c r="IU20" s="7"/>
     </row>
     <row r="21" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -6904,17 +7353,39 @@
       <c r="IU21" s="7"/>
     </row>
     <row r="22" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="8">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1423997</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -7161,20 +7632,176 @@
       <c r="IU22" s="7"/>
     </row>
     <row r="23" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:255" x14ac:dyDescent="0.25">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>373</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7187,7 +7814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IV6"/>
   <sheetViews>
@@ -7197,31 +7824,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="55" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="254" width="9.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="255" max="255" width="4.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="256" max="256" width="55" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="55.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="28.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="55.0" collapsed="true"/>
+    <col min="6" max="254" customWidth="true" style="2" width="9.109375" collapsed="true"/>
+    <col min="255" max="255" customWidth="true" style="2" width="4.88671875" collapsed="true"/>
+    <col min="256" max="256" customWidth="true" style="2" width="55.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7229,84 +7856,84 @@
         <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -7320,7 +7947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
@@ -7330,38 +7957,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="123.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="256" width="9.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="22.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="123.109375" collapsed="true"/>
+    <col min="3" max="256" customWidth="true" style="2" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -7369,7 +7996,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -7377,7 +8004,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -7385,7 +8012,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -7393,7 +8020,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -7401,7 +8028,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -7409,7 +8036,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -7417,7 +8044,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -7425,7 +8052,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="B12" s="1">
         <v>6</v>
@@ -7433,39 +8060,39 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>237</v>
@@ -7473,23 +8100,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>55</v>
@@ -7497,10 +8124,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
